--- a/movies1.xlsx
+++ b/movies1.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:L24"/>
+  <dimension ref="A5:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,1204 +356,1276 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>간츠: O</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>한 번 죽었다가 다시 살아난 이들. 정체불명의 괴물을 죽여 100점을 채우면 3가지 보상을 받을 수 있다: 최신 무기, 죽은 자의 부활, 그리고 현실 세계로의 귀환.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1시간 35분</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>청소년은 관람할 수 없는 영화</t>
-        </is>
-      </c>
+          <t>첫 접촉:잃어버린 아마존 부족을 찾아서</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABWV6hj2h2P3dozZg3PxrC9GRb_PG7xAbDKCeBpt0Z1IPKpQmnLMTVr6nFNS3efvMjKMb5e0k6kTIDRAtzv6gUTNEzXecMUmxyRtiwIc.png?r=259</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABX65jLlokY89ZArDXuFgPyBAL-kOT8Cz4f_kTiwGkuaihP14I5RSWxyAvraPCBK1YARmpNjvbbsyP-DkhbkkLk_WDjEBbDZ4HCN3EBk.png?r=453</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>사토 케이이치,카와무라 야스시</t>
+          <t>앵거스 매퀸</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>오노 다이스케,M·A·O,카쿠 토모히로,하야미 사오리,이케다 슈이치,켄도 코바야시,레이저 라몬 RG,레이저 라몬 HG,츠키야마 마사네,오노사카 마사야,츠다 켄지로,오가와 테루아키,요시다 히사노리,가지 유키</t>
+          <t>로버트 린지</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>일본 애니메이션·호러,일본 애니메이션·액션,일본 애니메이션·SF &amp; 판타지,일본 애니메이션 영화</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>폭력</t>
-        </is>
-      </c>
+          <t>영국 영화,다큐멘터리</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABVHvydJUk-JHPeSyvoiK59Lrrwa3gcFs7MAb_C0dxHQpWbXpnEJcCQp6Y1uVJiGZen9nGgfWf9Z83x8N_sC7krjLvL5HN4a-FQ.jpg?r=7cb</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABdJgKS9AXli5PEAUD8mqaZ3UhEWAI7fUlKGh8dAAguJnZaDhTIfuBiXmbphfUe5wZZu8dRWLAH6jaJ_KmxQvPNyI8m8FXGnPBw.jpg?r=c1b</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>교향시편 유레카 세븐: 하이에볼루션 1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>알 수 없는 원인으로 발생한 대재앙 ‘서머 오브 러브.’ 한 과학자가 목숨을 바쳐 인류를 구한다. 그리고 그의 사망 10년 후. 그의 아들이 하늘에서 떨어진 소녀와 거대 로봇을 만나 지금까지와는 전혀 다른 세계를 경험하기 시작한다.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1시간 32분</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>만 12세 이상의 자가 관람할 수 있는 영화</t>
-        </is>
-      </c>
+          <t>마지막 나치</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABZFAu4P9bTvRyy7POYnOQy9wIBSy4SK_CCRVJuUv2yVRDbbtNhBu9inNqGhxGTWOT-xDjNXU0j70aTbbBogc_jQ4LiI8UzFEGluvT5U.png?r=120</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>쿄다 토모키</t>
-        </is>
-      </c>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABcTanNPRslCpoMZkHhVa7VA1CExa9F36Ad9MY5xegynxL8aGZFWLyHG1Tq_fxh4ij8-SYv0T3eTWRiCYsimTeYKDQTf9azxY5qD9Hck.png?r=617</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>산페이 유코,나즈카 카오리,츠지타니 코지,네야 미치코,고스기 주로타,이사카와 아야,모리카와 토시유키,후루야 토오루</t>
+          <t>데이비드 모리시</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>일본 소년 만화를 만나다,일본 애니메이션·액션,일본 애니메이션·SF &amp; 판타지,일본 애니메이션 영화</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>상상 풍부,흥미진진</t>
-        </is>
-      </c>
+          <t>영국 영화,다큐멘터리,프로그램 특징,서스펜스</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABQrxXvPLuYagQJfPz-cqJs630CFk5WFJIaPTXQ4_fy_IMmj3DAASEmS6PBHNMiO6w2WiKtiTXPTfXjCf70iYxkLyGYw9uf7CZQ.jpg?r=f80</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABbWKM0ap3_yOhfGL-oNAFaK_uZhj0JienFWu6tpeTrypz-EGv7Si-_Cy2hT1VHvsnvldiOvWKO35QS4oKXGUMna2xXEcpdK6Og.jpg?r=e5b</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>블리치 극장판 - 지옥편</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>흉악한 죄인들은 지옥의 영원한 감옥을 탈출하기로 하고, 사신 대행인 이치고가 자유의 열쇠임을 알게 된다. 죄인들은 공격을 개시하고 이치고의 여동생을 납치한다.</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1시간 33분</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>이 프로그램은 15세 미만의 어린이, 청소년이 시청하기에 부적절하므로 보호자의 시청 지도가 필요한 프로그램입니다.</t>
-        </is>
-      </c>
+          <t>윌리엄스</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABZFKNwLmJWqzcZQO6CL1kI8mMjZZhtm3S0jZotwDxT7gGl7vljcFJLV4f8k6gcdjTDj7j63AOK9bQGufBpULgncK6_yyugmlsVg32ho.png?r=983</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABUHeZ2ips0msKTGJAgY_Q6jtFbpWjJwd9c75tbr2oE3VhDtu2RwyZjpVyLkQ_XfG9YfVNGOvlCQhHgDlakzquoFVjN2IzZ_5kmTbgEQ.png?r=8bb</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>아베 노리유키</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>모리타 마사카즈,오리카사 후미코,나카이 카즈야,스기야마 노리아키,이토 겐타로,마츠오카 유키,오키아유 료타로,박로미</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>오쿠보 마사히로</t>
-        </is>
-      </c>
+          <t>모건 매슈스</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>일본 소년 만화를 만나다,일본 애니메이션·액션,일본 애니메이션·SF &amp; 판타지,일본 애니메이션 영화</t>
+          <t>전기 영화,영국 영화,다큐멘터리,다큐멘터리·실존 인물</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>아드레날린 폭발,흥미진진</t>
+          <t>감동</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABfJMzewGLWS_oqewOEhQY7ZYsM6lNIOHyhZqSEMOeiwTtT-T3VtKMtRKfvkFaSwE-P-NzYgu0C6TLXO5Fptqeasn2ZuqwIj49w.jpg?r=0c9</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABcOngE-w1KNrFYvJI-K2CslZ6HfDWwqmzaC3pCR_BSAxTFcwG1zK9Eaw7xHwAwj8qDycG0moYWEUzTgnyoImgcNLKnmMiPBvEA.jpg?r=bb7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>극장판사이코패스</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>미래의 일본에서 범죄를 사전 예측하는 감시도구 네트워크의 전 세계 출시를 앞두고 테러리스트들이 시스템에 침입하는 사건이 벌어진다.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1시간 53분</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
-        </is>
-      </c>
+          <t>최후의 호흡</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABSFAp38vfxSY_6HR-R3hyLPEpgZSnCgb0lhZqOjNYdMHP5cgwhGq9AUoec2XXDZx8-807UWwep8LnbrtmnEYGVsCEb5iHN19WgiWYbc.png?r=9af</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABevJcBuicDSLcLN8MwAAxO-zyzl5yDgbuN5ntCjHOTjMNKpBRlUN_ciUxpfk1E0fkpqaomYsdm7WKjuCJjTQfQXJYUEQo9o04WuvFnQ.png?r=28a</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>모토히로 카츠유키,시오타니 나오요시</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>하나자와 카나,세키 토모카즈,노지마 켄지,이토 시즈카,사와시로 미유키,사쿠라 아야네,사쿠라이 타카히로,토우치 히로키,야마지 카즈히로</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>앨릭스 파킨슨,리처드 다 코스타</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>앨릭스 파킨슨</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>일본 애니메이션·액션,일본 애니메이션·SF &amp; 판타지,일본 애니메이션 영화,일본 영화</t>
+          <t>영국 영화,다큐멘터리</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>폭력,흥미진진</t>
+          <t>서스펜스</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABRCJ1-er1pNFM0DZh9ozzJxV4rnh7102ddCSvEI5Lg14u9EM1ceZEd7Q4bYwsvkA_cBKqoWFT3SeWlxOdemDqUcAwhMyKwPXXg.jpg?r=cf7</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABQSqVDA7rNZOwF7n67QSWEcNeLxzXTnIvuouqvQirGDmuKh7uKVzEl6xO3TGkTOsmSMMwWrp5gaAtqNHen5gik91DRbHOgtH9w.jpg?r=653</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>이누야사 극장판3 : 천하패도의 검</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>영웅 개요괴는 송곳니로 만든 검 세 자루 중 두 자루를 자신의 두 아들에게 물려준다. 그리고 남은 세 번째 검에는 깃든 악마의 힘이 깨어나 버린다.</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1시간 39분</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>만 12세 이상의 자가 관람할 수 있는 영화</t>
-        </is>
-      </c>
+          <t>트루스 오어 데어 - 감독 확장판</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABTz-UiRUY9WlJ6FDIuw3MdmOCmwblIB0h2--DebdCL_rJFOR8sR1eNNmQQAhwXFZrqEsaYY6CtNjzSSVq8pxuxtQNJlEMcmMlWGKMOc.png?r=b87</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABUmI1IRYG5wn-wz8RmwsPuEmc8GMECcaOWjcWatcXdaFNH_P8YKgZ2Eewsho-C6NB-jIF4UKXKg7-RFm2xUQKwJUliGh75hbr5ZEFso.png?r=916</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>시노하라 토시야</t>
+          <t>제프 와드로</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>야마구치 캇페이,유키노 사츠키,츠지타니 코지,구와시마 호코,와타나베 쿠미코,켄 나리타,아키오 오츠카,이노우에 키쿠코</t>
+          <t>바이올렛 빈,랜던 리보이론,루시 헤일</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>일본 소년 만화를 만나다,일본 애니메이션·액션,일본 애니메이션·SF &amp; 판타지,일본 애니메이션 영화</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>어두운 분위기,흥미진진</t>
-        </is>
-      </c>
+          <t>미국 영화,다큐멘터리,다큐멘터리·음악 &amp; 콘서트,음악 &amp; 뮤지컬</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABXLIjL3D8diKIWuHt6vxoYrY9B6yd4MYEdmQNTna_Z6hqPixYCC4fuK7H0OIYe-0jsnksq46NHq0J-358HcLh4LSyG3g2gcU0g.jpg?r=ae3</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABRiTjE30LpYlmC8L7TnWD2IPf4XbPE0tlG5ImcukwhtZFA0WT_xMPUgEj8Sw27r5JiDD9CJlvC1-ZUPDC2Uep2VG-OHSCvJhSw.jpg?r=335</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>블리치 극장판 : 페이드 투 블랙</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>시미터 검을 휘두르는 이방인 때문에 마음이 혼미해진 마유리가 실험실을 파괴하자, 버섯 구름이 피어나 세이레테이를 초토화한다.</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1시간 33분</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>이 프로그램은 15세 미만의 어린이, 청소년이 시청하기에 부적절하므로 보호자의 시청 지도가 필요한 프로그램입니다.</t>
-        </is>
-      </c>
+          <t>밥 라자르: 51구역과 UFO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABft8LGO9dnZ2x5UlBrvah_4_GLKXgIdKD-BpHJviBmAbGqsHlmdfoJivf8IPVUmU35k8f2hJVd4ArGOdMovYJxK5_ZG5Q911bVMc6Pg.png?r=4e9</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABQk-EFH9d5TjcvHSPuTBNPeaiPu2ClgVVeEuCQZ6iWBHbKLb3KlA8DXr7ewpJcfQhhrghUisuoXyV7VIWrgrlx6pURJOJ4mEWWUFpvY.png?r=122</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>아베 노리유키</t>
+          <t>제러미 케니언 로키어 코벨</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>모리타 마사카즈,오리카사 후미코,히라노 아야,카미야 히로시,마도노 미츠아키,오키아유 료타로,이토 겐타로,미키 신이치로,유키노 사츠키,쓰카다 마사아키</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>다카하시 나쓰코</t>
-        </is>
-      </c>
+          <t>로버트 라자르</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>일본 소년 만화를 만나다,일본 애니메이션·액션,일본 애니메이션·SF &amp; 판타지,일본 애니메이션 영화</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>흥미진진</t>
-        </is>
-      </c>
+          <t>전기 영화,미국 영화,다큐멘터리,다큐멘터리·실존 인물</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABXLRBnRXdux-dL11GwWFixIShG2FMGhUsbJUtnC7nKSHNElaVKQWtJRiItisyf82cPEVP1O1bv9oEa3Zsw_WixDO7A-ksZIcCA.jpg?r=e9e</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABbEJH14ezDkrbaw7SxtWqaluOZaN1qVJA6c3pn2kpwir0UW0RQvCJUviomuLi2d8HyHRZMxfjybbJLt0QwQa4ptF1PqsCKWdJg.jpg?r=e43</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>블리치 - 극장판</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>카라쿠라 고등학교 학생인 이치고와 귀신 친구 루키아는 정체 모를 영혼이 마을로 내려오자 공포를 느낀다.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1시간 32분</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>이 프로그램은 15세 미만의 어린이, 청소년이 시청하기에 부적절하므로 보호자의 시청 지도가 필요한 프로그램입니다.</t>
-        </is>
-      </c>
+          <t>UFO, 은폐된 진실</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABbHomld9DOyQdX-GEEdoOk1r6KL7TWXhDx7y2TlbaSVv52UyQOLQwc96OHMAv8UaXT5XgdChyDTtGzd203aA02eCpuwYpil0ycjaQ1o.png?r=aa8</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABf3HI8FdD9bObqwpIsqo5xsae_DAhmTu7oP-_a8VT1dad3PrwglGhiKlhucqjT8vV0nKTweTmyNZyBnkGlI81nn1QNZqADqrY4LdnM0.png?r=043</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>아베 노리유키</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>모리타 마사카즈,오리카사 후미코,사이토 치와,에바라 마사시,이토 겐타로,오키아유 료타로,박로미,쓰카다 마사아키,가와카미 도모코,미키 신이치로,아키오 오츠카,타치키 후미히코</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>마이클 마졸라</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>마이클 마졸라,스티븐 피크</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>일본 애니메이션·액션,일본 애니메이션·SF &amp; 판타지,일본 애니메이션 영화,일본 영화</t>
+          <t>미국 영화,다큐멘터리</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>색다른 이야기,푼수 캐릭터</t>
+          <t>논쟁을 부르는</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABe09VFc4u4HGzuQQSpoBxYf-3smzi6Xg6vfjPSC4hSKhJB2Plau76D2HsGnv-IihI0qhCPXI4bJHIjBz66KRKaWqWFq8GMQcNw.jpg?r=0b2</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABQKgDb8p7T63MuXXJWDVGWZZs0n77Vhvg-niZXq-hcV19AwnBKOGzMdW83EZmpFvbkzs3v_DZqIM01vdjB0UH6WP6garn_Qs4w.jpg?r=f49</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>블리치 극장판 2 - 다이아몬드더스트 반란</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>왕족의 보물을 도난당했다! 도둑들을 쫓아간 뒤로 종적을 감춘 히쓰가야 도시로. 반역자로 낙인찍힌 것도 모자라 상황은 점입가경으로 치닫는데. 이제 어떤 일이 벌어질 건가.</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1시간 32분</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>이 프로그램은 15세 미만의 어린이, 청소년이 시청하기에 부적절하므로 보호자의 시청 지도가 필요한 프로그램입니다.</t>
-        </is>
-      </c>
+          <t>알파고</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABQK_rhYi5ZNfiyzEJthyQsGtziA99pXz1KsttE7bPOYxdQSC7cEP_ZC-WrbMfPgJv58rQ_JOrd0b70LeCnzdkJ35dubhfDYAS7y7Isg.png?r=7e0</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABZ4rLhkGKcWmKUmxgnzM7hu9KakNGOLBIC8-sn2iddMpgGJANY9oy9A2w5lj--TBwMjvnA_b5OrYF1Xp1XDYKSW0O1Up-oaStClv31g.png?r=b9e</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>아베 노리유키</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>모리타 마사카즈,오리카사 후미코,야스모토 히로키,마츠오카 유키,스기야마 노리아키,이시다 아키라,이토 겐타로,타치키 후미히코,쓰카다 마사아키</t>
-        </is>
-      </c>
+          <t>그레그 코스</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>일본 애니메이션·액션,일본 애니메이션·SF &amp; 판타지,일본 애니메이션 영화,일본 영화</t>
+          <t>미국 영화,다큐멘터리</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>상상 풍부,흥미진진</t>
+          <t>감동</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABYuCrBuvcyzZlfFoKmMU38Z5ss-_SK4ocPbiNMIfRJHB4_96kOkFHWP5jIXSa1X5ejGzkJLMyMetTwDDKFhN2T8iqW9dCegSTA.jpg?r=697</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABYEN0iXm_ECVJpmeZahgNYwV65mEfd_GVYWk7RtVoJsvpRQIDlxx6ddcp_erO3CcGfUpz34eVJj4OGeyeylWD9fjbVx0rSjtfg.jpg?r=b27</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>바람바람바람</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>중년이 될 때까지 한결같이 바람둥이로 살아온 남자. 제주도에 살면서 매제한테 불륜의 세계를 알려준다. 그래서일까, 권태로운 결혼 속에서도 바람만은 생각도 않던 매제가 매혹적인 여성에게 홀딱 빠졌으니. 첫 불륜, 설레면 이상한 거야?</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1시간 40분</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>청소년은 관람할 수 없는 영화</t>
-        </is>
-      </c>
+          <t>마이클 잭슨의 디스 이즈 잇</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABYjnwQwL1yr1yDu1XgNncEp7ib6DNJzvoZ_17rkpTF4Gv8N-t5JnXKzhuo4JjQqscT04tu4qg0SG264FQobNn8dzbi_sU3RQsjMRpHQ.png?r=9a3</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABVGurHQ2WKDKjGAd4aeUwlXIi9enOhWlcZkBS8fqMagzMC8x8jb6VvoC8T3qCxiBIArK7hCu1aEzshBrXB4tTMPpJNJ4NpuU8QbxKJE.png?r=18f</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>이병헌</t>
+          <t>케니 오르테가</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>이성민,신하균,송지효,이엘,장영남,양현민,고준</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>장규성,배세영</t>
-        </is>
-      </c>
+          <t>마이클 잭슨</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>한국 영화,영화·로맨스,로맨틱 코미디,코미디</t>
+          <t>록 &amp; 팝 콘서트,전기 영화,미국 영화,다큐멘터리</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>색다른 이야기,선정적</t>
+          <t>가슴 뭉클</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABZptvSJmgCzZ3cyXARQpNjAMJSpGYeluOfceHR3gIvCtzf3vJyLVV8tBDEtdZwkGkGPacfoqcecDckD8_Ev6Nu0eU4mKnhn0aA.jpg?r=ad0</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABVUiyo2-BIojtGLz2nMKFnM7ewbWAjAUyd4C38rvuChz_MVPNwsyVdzLJlzq4gopVeVwNQHs_yT-D-rfLD_vDNlehDe5SHBQrQ.jpg?r=6c1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>헤일로 : 위대한 여정</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>유명 감독들의 독립 애니메이션 단편 7편으로 구성된 이 옴니버스 영화는 인기 비디오 게임 시리즈 헤일로에 등장하는 미래 세계를 다룬다.</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1시간 57분</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
-        </is>
-      </c>
+          <t>창의적인 뇌의 비밀</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABXgqgnRqna7lgOQlgOc80TNUnRuGXlNnlxPjJWR_ezmOWI92-NZzJHlV4_asswLrHCsAG45bWTbEvJUDlrSTpEsMbfGXlyUhzAeYOZ0.png?r=695</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABe2xRTjJKetVqcKZ716mpYWWlTUzbShHSnpEswDmnvnGLBQsF2f5dMJ88gWluWurnMETHbkKf02rBxEbufhcjanorTKJOpZvQZS2i8k.png?r=410</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>아라마키 신지,오시이 마모루,후타무라 히데키,칸노 토시유키,쿄다 토모키</t>
+          <t>제니퍼 비미시,토비 트랙맨</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>앤디 매캐빈,제임스 폴크너,루시 크리스찬,존 스웨이지</t>
+          <t>데이비드 이글먼</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>조지프 스테이튼,야마자키 히로시,우메하라 에이지,가와사키 히로유키,사토 다이,라이언 모리스,나가카와 나루키</t>
+          <t>데이비드 이글먼</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>게임 마니아를 위한 일본 애니메이션,미국 영화,비디오 게임 원작 아니메,일본 애니메이션·액션</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>상상 풍부,흥미진진</t>
-        </is>
-      </c>
+          <t>라이프스타일,미국 영화,영화·도서 원작,다큐멘터리</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABcnu_E3r6V88na1NUAAHVU5_r4v_oe39u7o5YPBd02KtINksebj-BGgnYjevHBbAT65nWrICoKgmBX0-QNI3FZQ_nha9yXlbwA.jpg?r=830</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABVJHzmaPgPHWN-lGHQ0sRH8u_xe-SK9PxPO7a2MHIHw13iga-eLWfxpYtoP3kkWBWnY0KfP4bIN1tf7MKx3u2O7nfKZLNE-uiw.jpg?r=309</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>라스트 썸머</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>이제 막 고등학교를 졸업한 시카고의 십 대들. 그들이 여름을 맞이한다. 자유로울 수 있는 마지막 기회. 사랑도 꿈도 불투명하지만, 마음이 원하는 길을 가고 싶다.</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1시간 49분</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
-        </is>
-      </c>
+          <t>레이디 가가: 155cm의 도발</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABcp0Q-KcTzWaiOQKfRMLPNArCBSji3kakB9PNiW00uJI-ni6SP5h1i21kPgaRDC35YxW8yhSZCBiaCuMjkAdSsnLH1M-uA9105s-wl86VsfFr7_axZfTZGQXsUOGI3C5Ciu0K7z1EYhAsRnwKWdih7VxnbmczskVxOv-ac_btiU.png?r=016</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABUAX8vRhGyQgDudsZkQEiK9k2IXDJTVLICeLJaj0FXLyiF3Ke4Z7yxwt2A85HjLRgS7aB-t9BcEtdldy1TokyRj25soX44-ftZYqlOYbzQUyk3sX_6mA6Zlewqhc6zvvdYYF0G6KC4E6bKgVT0e8KIYZhb4oYh3MzTFqU5NUUB4.png?r=1ff</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>윌리엄 빈들리</t>
+          <t>크리스 무카벨</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>K.J. 아파,마이아 미첼,타일​​러 포지,제이컵 래티모어,홀스튼 세이지,울프갱 노보그라츠,소시 베이컨,제이컵 매카시,마리오 레볼로리,게이지 골라이틀리,오드리 그레이스 마셜</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>스콧 빈들리,윌리엄 빈들리</t>
-        </is>
-      </c>
+          <t>레이디 가가</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>미국 영화,십대 영화,십대 로맨스,영화·로맨스</t>
+          <t>록 &amp; 팝 콘서트,전기 영화,미국 영화,다큐멘터리</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>가슴 뭉클,훈훈</t>
+          <t>감정 풍부</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABV3BvWOkmjoB-s0knXTW3_JUKRgO5hk5Oah5-SXg8GhICafr0Rd0uZkIKQF2wfIOA-i67lBGrAYhFTjz_lnuM_IQMgKNI--MOA.jpg?r=dd3</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABfRZxxzAd6NTenbuIeQbIoWWf3j-XiIsKi307p8eFX1YqVEDSfA7T3mN8R0HXEnk92yKCHZnHZn_9WbOA-oX9Mt1EGsIDwxh3g.jpg?r=949</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>변산</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>큰 꿈을 안고 상경했건만, 몇 년째 서울 종살이(?) 중인 무명 래퍼 학수. 어느 날 한 통의 전화를 받고 고향에 내려간다. 다신 가고 싶지 않았던 그곳에서, 지우려 했던 흑역사가 자꾸 소환되는데. 나 시방 서울 가야 쓰겄다!</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2시간 3분</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
-        </is>
-      </c>
+          <t>FYRE: 꿈의 축제에서 악몽의 사기극으로</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABYY8yNYzEg7ooX-B9rPgIampAeoVswCj3M2pSHLLsSiOUv-kHrE6d4s43PK-1c1op3Vj-1ZFCZKR-4N-sOU4N5ja7n-mk08Gv4KJIBo.png?r=850</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABQs9MOJRmjbhDw-T155YoclFYPww3TqDrZYWKfTMwVc6fqyKws2RUZzFmbGjcy47fvU0hNVgNIbCQDBFwCJ0dOPyj6hNLCnu6X8s_4FBsRVhifbUr2nEpz-2cBghuv_FFQDhbG56Y1ndAS3i_x5vzY7zqeWiuMiWS8kfhlgzkZE.png?r=b34</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>이준익</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>박정민,김고은,장항선,정규수,신현빈,고준,김준한,최정헌</t>
-        </is>
-      </c>
+          <t>크리스 스미스</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>김세겸</t>
+          <t>크리스 스미스</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>한국 영화,드라마 장르 영화</t>
+          <t>미국 영화,다큐멘터리</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>가슴 뭉클,감정 풍부</t>
+          <t>도발</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABTy6vNdJAf9aVARF_37eQJBayT4xXECM7LPUkT9hBebN86J08sGytM-xlm90fveoGOIrP6zrAH9AOtsT86jAIRNeZ_yAHFpDxg.jpg?r=fd0</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABRT3-s9LxDCJM2YqeucMopkPbpQ-OS3_A8cbgx14W22Va_W-Oa7jLYP7NKJKr6gy3U0Kesgk_lharx5XelxQ7821-ZO8z3WyCA.jpg?r=0f3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>라따뚜이</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>5성급 레스토랑 아래에 사는 생쥐 레미는 좋은 음식을 알아보는 훌륭한 미각이 있다. 하지만 요리에 대한 레미의 열정은 아빠 생쥐의 화를 돋우고 말 뿐이다.</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1시간 51분</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>모든 연령에 해당하는 자가 관람할 수 있는 영화</t>
-        </is>
-      </c>
+          <t>블랙 미러: 밴더스내치</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABZpXQF15Ue0tLLEu2NFAdTBng27Pl_wB4YDfoCslkz52S9kAAwSpJ0czQpww_yb1zgrJR9N42DPjtvwdC1KeJlL1XyQ19FU3dLIqAq8.png?r=816</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>브래드 버드</t>
-        </is>
-      </c>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABYt_xDA02FD4RqZaB-yPeOU4TfTr9v02OZdGcFzFvd8pmGlVNp1HBvB8WfDlSfcblxDthJyT_jp4zJWmxkP1OMHt2hBJcq1vli2xuzuh34LiY1H5swBEEWQwojV7i2Ct4Fohg0OoG2XDq-IEwr6iS0O1umyQZs5TwZtRz1I6EPw.png?r=bc8</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>패튼 오스왈트,이안 홈,루 로마노,브라이언 데니히,피터 손,피터 오툴,브래드 개릿,저닌 거로펄로,윌 아넷,줄리어스 캘러핸,제임스 레마,존 라첸버거</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>브래드 버드</t>
-        </is>
-      </c>
+          <t>피온 화이트헤드,윌 폴터,크레이그 파킨슨,앨리스 로우,아심 차우드리</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>코미디·가족,미국 영화,코미디,영화·어린이 &amp; 가족</t>
+          <t>영국 영화,영국 TV 프로그램,TV 드라마,TV 프로그램·SF &amp; 판타지</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>훈훈,상상 풍부</t>
+          <t>현실 붕괴,색다른 이야기</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABSgiYt7uxGRXR8kmAkgFDdA4SWkUxHZREHHiYNmxhLlxT-o6p_MX_93ZipgQYu1J0KmyowBclSCX8nZr6OzxT_xiTK0kg_Ts7A.jpg?r=26d</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABdsXViZG9oBov-AAveWtp6QWzFAgOpLgAfmoJTby7rKVDLb-m04gaCZMJkj7pkh_3hcLN_xRImpI-RlqpDPNawk-fp22c38Dn5hzbzhbN3cVXU4c9RvWzm41FOo-LDFV9EGghyDUo-T7vJw4kdU5HQ.jpg?r=cbc</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>인사이드 아웃</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>정든 마을을 떠나 도시로 이사한 라일리. 집도 마음에 안 드는데, 등교 첫날 친구들 앞에서 울어버리기까지. 이를 어쩌지? 라일리의 마음을 움직이는 다섯 감정들은 마음이 급해졌다. 실의에 빠진 라일리에게 어서 행복을 되찾아줘야 해!</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1시간 34분</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>모든 연령에 해당하는 자가 관람할 수 있는 영화</t>
-        </is>
-      </c>
+          <t>간츠: O</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABRd3-cFeqJKJ8_R3shjpKpP0PDtfaJlQ05q4_UAucOIe-5pdMGev9CLhLZKP5H6pdTaLmpcPerq9MQGjoDMhgGkMVeosybUj9kUX90M.png?r=8f5</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABWV6hj2h2P3dozZg3PxrC9GRb_PG7xAbDKCeBpt0Z1IPKpQmnLMTVr6nFNS3efvMjKMb5e0k6kTIDRAtzv6gUTNEzXecMUmxyRtiwIc.png?r=259</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>피트 독터</t>
+          <t>사토 케이이치,카와무라 야스시</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>에이미 폴러,필리스 스미스,리차드 카인드,빌 헤이더,루이스 블랙,민디 캘링,케이틀린 디아스,다이안 레인,카일 맥라클란,디오구 인판트,쿠스토디아 갈레구,보비 모이니핸,플리,프랭크 오즈,카를로스 엘라즈라퀴,폴라 펠,러시다 존스,폴라 파운드스톤,데이브 골츠,존 라첸버거</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>피트 독터,로니 델 카르멘</t>
-        </is>
-      </c>
+          <t>오노 다이스케,M·A·O,카쿠 토모히로,하야미 사오리,이케다 슈이치,켄도 코바야시,레이저 라몬 RG,레이저 라몬 HG,츠키야마 마사네,오노사카 마사야,츠다 켄지로,오가와 테루아키,요시다 히사노리,가지 유키</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>코미디·가족,미국 영화,코미디,영화·어린이 &amp; 가족</t>
+          <t>일본 애니메이션·호러,일본 애니메이션·액션,일본 애니메이션·SF &amp; 판타지,일본 애니메이션 영화</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>가족이 함께 보기 좋은,가슴 뭉클</t>
+          <t>폭력</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABYAvsPkcZPS0YLYg66U6DnstZvdiZnQ19qq3Tmdz2ZvCbdtGg5TG10KcjDMbzOxYZm2uSqSOs4B1ye9AOlqmbmACaHztIyW8OQ.jpg?r=635</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABVHvydJUk-JHPeSyvoiK59Lrrwa3gcFs7MAb_C0dxHQpWbXpnEJcCQp6Y1uVJiGZen9nGgfWf9Z83x8N_sC7krjLvL5HN4a-FQ.jpg?r=7cb</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>프린세스 다이어리</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>친구들과 잘 어울리지 못해 외로웠던 미아 서모폴리스의 삶은 자신이 유럽의 작은 왕국의 공주라는 것을 알게 되자 완전히 뒤바뀐다.</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1시간 55분</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
+          <t>더 퍼스트 퍼지</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABYbLVk43nMr49KGNXD65ecNBLxxaewpgEEPiM5Uw0ei1O6TBi8GOJdVn7lFiNQwFTYW4yudiLq_JeU4hO44gIOgD8l8pDsz7ZAT_6Z8.png?r=cb0</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABTAsY8tfUmDAegUKXbpYxrBRlh_fmG9i_EI1l_GqmHv_2KHsHFb6Y-AZSK4gfilZ-jnHTMIR_ZMGh10AdjHFpsMweLFJTtcu0xy9HnY.png?r=19e</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>게리 마샬</t>
+          <t>제라드 맥머리</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>앤 해서웨이,줄리 앤드루스,헥터 엘리존도,헤더 마타라조,맨디 무어,캐럴라인 구돌,로버트 슈워츠먼,에릭 본 데튼,패트릭 존 플러거,숀 오브라이언,산드라 오,캐슬린 마셜,아담 윌리엄스,토드 로,샌드라 테일러,톰 하인스,섀넌 윌콕스,비앙카 로페즈,제인 모리스,칼 마키넨,샘 디노프,샬럿 마셜-프리커,찰스 가디노,조 로스,에리카 영,조 앨런 프라이스,패트릭 누넌,레노어 토머스,니콜 톰,민디 버바노,캐시 가버,에릭 브래그,보니 에런스,존 모런,바버라 마셜,테리 브라운,조엘 매크레리,베스 앤 개리슨,이선 샌들러,트레이시 라이너,루벤 그런디,그레그 루이스</t>
+          <t>일란 노엘,렉스 스콧 데이비스,조이반 웨이드,스티브 해리스,머리사 토메이,모 맥레이,로렌 벨레스,패치 대라,크리스천 로빈슨</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>지나 웬드커스</t>
+          <t>제임스 드모나코</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>코미디·가족,미국 영화,영화·도서 원작,코미디</t>
+          <t>미국 영화,액션 &amp; 어드벤처,액션·스릴러,SF &amp; 판타지</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>훈훈</t>
+          <t>도발,폭력</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABVo5y09pCZ3zhOzMxEbLufd9v8rgTpviIQX6ZgCsXHnc9SKKHWakV5RMOokWdFElGqTmT75tQ0IaSNM5LBVncLG3Nu2H_Tb-Aw.jpg?r=514</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABa_VASqVz1rpb93i3666w-vggaVs0jhir34hkOOZH0TtF5mYVC9jbrdU0PA2ezdjBMyR2COdYI7gD_aaIbw_dk2n-ROeqc7PvA.jpg?r=747</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>마틸다</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>한심한 부모와 사악한 교장에 시달리던 어린 소녀가 새롭게 발견한 능력을 활용해 자신을 괴롭힌 이들에게 귀여운 복수를 시작한다.</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1시간 38분</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>모든 연령에 해당하는 자가 관람할 수 있는 영화</t>
-        </is>
-      </c>
+          <t>리젼</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABQWtErp6AVB_Ef5ihsanWxUV6FOpCZvRD84acCd4ArYJVQzq2wttn3VPcPA0H_eiOGCX_urxQ7SM-RVOJ7lm5TdZmGBUwRhloZHp63g.png?r=d53</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABdhlKGpB1lj7AR7481job8gDenVHoiV4IAf9dvTHj0FKkCiEXw31OJ8AMjir3UcyULpp1vuIDkvBKGZ-HZl7GXYf8ukX6U1-QuCaH-g.png?r=45b</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>대니 드비토</t>
+          <t>스콧 스튜어트</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>마라 윌슨,대니 드비토,리아 펄먼,엠베스 데이비츠,팸 페리스,폴 루벤스,트레이시 월터,브라이언 레빈슨</t>
+          <t>폴 베타니,루카스 블랙,타이레스 깁슨,아드리안 팔리키,찰스 듀튼,존 테니,케빈 두런드,윌라 홀랜드,케이트 월시,데니스 퀘이드,조쉬 스탬버그,얀시 아리아스,지넷 밀러</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>니콜라스 카잔,로빈 스위코드</t>
+          <t>피터 싱크,스콧 스튜어트</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>코미디·가족,미국 영화,영화·도서 원작,코미디</t>
+          <t>미국 영화,액션 &amp; 어드벤처,SF &amp; 판타지,액션·SF &amp; 판타지</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>색다른 이야기,훈훈</t>
+          <t>등골 서늘,불길한 영화</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABQ68WgqzpzD20X9iqkOgu2HTxs4mbuKWcfg4wX83fuolKoypY73MhW_w8lRLbTUnvGMkOV8Wb-_5NhEqUrnAayD4jS7lwTNg5Q.jpg?r=d96</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABQJ3TzIsDb03H01tUBLxqdNuhOlLAK7YMJmy52Gc9zrDzhoDY2rpUNbZ_aOH_H1NJkNF4ZeGeVzeY-4cZiar41dRwQnGT_eNCw.jpg?r=f94</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>찰리와 초콜릿 공장</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>괴짜 윌리 웡카의 초콜릿 공장을 견학하게 된 행운의 어린이 5명은 그가 만들어내는 놀라운 과자의 비밀을 알게 된다.</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1시간 54분</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>모든 연령에 해당하는 자가 관람할 수 있는 영화</t>
-        </is>
-      </c>
+          <t>반 헬싱</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABQV7dSajMTabYZYKweJxIfXM9tzGkTw0SUC7hkcTBwJtNKm3qFZOeb1s4cVn5yzlNV2SzkIoXKYQYyFFj3t7ElpfFV2prwvRy4gB-mo.png?r=e53</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABZIOc0lqhoSghXgZ5wlMolowo6kEuRU54v7iiZu35Dtj0vGNnyUTYOfb4g8NmObZnVu9eSM6boq_5MXdnehgBvn-47O_SDZXXIdZt3M.png?r=1d2</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>팀 버튼</t>
+          <t>스티븐 소머즈</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>조니 뎁,프레디 하이모어,데이비드 켈리,헬레나 보넘 카터,노아 테일러,미시 파일,제임스 폭스,딥 로이,크리스토퍼 리,아담 고들리,안나소피아 롭,줄리아 윈터,조던 프라이,필립 위그래츠</t>
+          <t>조시 매런,휴 잭맨,엘레나 아나야,앨런 암스트롱,윌 켐프,실비아 콜로카,리차드 록스버그,슐러 헨슬리,케빈 J. 오코너,데이비드 웬햄,케이트 베킨세일,로비 콜트레인</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>존 오거스트</t>
+          <t>스티븐 소머즈</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>코미디·가족,미국 영화,영화·도서 원작,코미디</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>상상 풍부</t>
-        </is>
-      </c>
+          <t>미국 영화,영화·도서 원작,액션 &amp; 어드벤처,액션 &amp; 어드벤처·블록버스터</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABfCwaSmG3VSlKK2HYYJo5Ko04sBeOjUMH58xY-ZmVwqe2ivaZF5en1em4g1zziDDSJaFZBXpLFkr67w_1ShzlC8eWHbTt7rjDw.jpg?r=07b</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABfOhMzt10qMYpckhoELtCr_6MewdPX_SEVl-BzylNtM-3FhbpHntR_-wXoB_kF-OTu2O1sh6acS6I5A0IeV55plzvW4cHRXq2w.jpg?r=4c5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>몬스터 호텔 3</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>호텔에서 평생 일만 한 드라큘라. 부쩍 외로움을 타던 중 생애 첫 휴가를 떠난다. 크루즈 선에 오른 후 미모의 선장과 예정에도 없던 핑크빛 사랑을 예감하고. 하지만 선장에겐 어두운 비밀이 있었으니. 역시 호텔 밖 세상은 위험하다?!</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1시간 37분</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>모든 연령에 해당하는 자가 관람할 수 있는 영화</t>
-        </is>
-      </c>
+          <t>프리스트</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABXJAcCFg9vrZDkJgAOJXArSwUuQQcj_e-hoqwwVXmtG8S4dQG8tzgGj3Fjan_9aigr7rgvx2V87MwSWucr94N9lzKxehcsmRU_MtWFM.png?r=369</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABVPNGsRv_baoIhpbf9OIYFQNEoRzJu0ekFZtBel_Z7QYiBs601vgdHTlaN80iK4v8t-Pg4mV6kmY35i2MKOHuatVzDUndhK2kxvlzzk.png?r=985</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>겐디 타르타코프스키</t>
+          <t>스콧 스튜어트</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>애덤 샌들러,셀레나 고메즈,케빈 제임스,캐서린 한,앤디 샘버그,데이비드 스페이드,스티브 부세미,프랜 드레셔,몰리 샤논,멜 브룩스,키건마이클 키</t>
+          <t>폴 베타니,칼 어번,캠 지간데이,매기 큐,릴리 콜린스,브래드 듀리프,스티븐 모이어,크리스토퍼 플러머,앨런 데일,메이천 에이믹</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>마이클 매컬러스,겐디 타르타코프스키</t>
+          <t>코리 굿맨</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>코미디·가족,미국 영화,코미디,영화·어린이 &amp; 가족</t>
+          <t>미국 영화,액션 &amp; 어드벤처,SF &amp; 판타지,액션·SF &amp; 판타지</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>가족이 함께 보기 좋은,푼수 캐릭터</t>
+          <t>무서운</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABS2hLvxwaaitub5J8KzRLaJ9EoRATs_XwT_pHfozTcc_wQ-4ZHIDKG7DVRR87oKA1IIPTHLMcwc1KygiIMqGf5kNo6ijuwEOuA.jpg?r=1e9</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABV8IPWOpOPwvXBmiqL6yD1ZW538lYX9_oABbGPx5IPVt61gzu2erxLrfU68e1yHpptdq8hEL1OIMktdeXPzfAbJqs8dheAzeEQ.jpg?r=d15</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>미니언즈</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>《슈퍼배드》의 신 스틸러 미니언즈. 알고 보니 인류 탄생 이전부터 존재했다? 놀라운 생존력을 자랑해 온 이들에게 문제가 생겼으니, 이제 섬길 악당이 없다는 것. 새 악당 보스를 찾아 나선 미니언즈 3인조, 좌충우돌 여정을 시작한다.</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1시간 30분</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>모든 연령에 해당하는 자가 관람할 수 있는 영화</t>
-        </is>
-      </c>
+          <t>에이리언 VS. 프레데터</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABVg-e3zRyB1rmitccYU1vrE_zt4qh4uJlGvYvDo2CQ_ulUYOMQBa6Mt9KaXNhkm1zJv17FAI-qkgSCe4PbXxZwFh8q-DzNJdujbMNXQ.png?r=fd9</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABUFjlKwwyRq4JMlLNfPNFyEo6yN4CS3qI64KYxUu30v7_2qZWtajYbApny0LkBWh32Gh0hVzapt_GRSGU2TIaot4sJJQJLjUqpbvOhM.png?r=8f9</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>카일 발다,피에르 코팽</t>
+          <t>폴 앤더슨</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>산드라 블록,존 햄,마이클 키튼,앨리슨 제니,스티브 쿠건,제니퍼 손더스,제프리 러쉬,피에르 코팽</t>
+          <t>사나 레이선,라울 보바,랜스 헨릭슨,이완 브렘너,콜린 살몬,토미 플라나건,조지프 라이,아가트 드라불레,카르스텐 노르고르,샘 트라우턴</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>브라이언 린치</t>
+          <t>폴 앤더슨,댄 오배넌,로널드 슈셋</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>코미디·가족,미국 영화,코미디,영화·어린이 &amp; 가족</t>
+          <t>미국 영화,액션 &amp; 어드벤처,SF &amp; 판타지,SF 공포 영화</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>훈훈,푼수 캐릭터</t>
+          <t>무서운,폭력</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABVekNXechmIeX9O2pQisUiybXUVegso_FyTNLBEVBHPbcrj25ElD4Jeam2LzH01bI-4IWJi6TP3U-axuINMheE0NR1V6ugn4Vg.jpg?r=860</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABepTa1pse4K58quCVsGtQtnkbuhLURQYscrqsS1eMZ58Gg02YAo3V6p98pZSxkB5D04JRTKwDcQi1Shdi6yMcfAAcRcI0mRMMQ.jpg?r=14a</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>한낮의 유성</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>졸지에 삼촌과 도쿄에서 살게 된 여고생 스즈메. 근데 세상 참 좁다. 삼촌 집에 데려다준 남자가 담임일 줄은. 담임 선생님의 자상함에 반한 그녀. 근데 정작 자길 좋아하는 건 같은 반 인기남? 스즈메의 첫사랑은 누구와 이어질까.</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1시간 58분</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>만 12세 이상의 자가 관람할 수 있는 영화</t>
-        </is>
-      </c>
+          <t>프레데터스</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABcGpqR848QtgWy5fjp1-XbVDoacs87iPmqMWV6_dVvMwE_URxAGTq1147nHRtZDkUi8JNOxNw8Enc23tJzeDim7dCaMLD4Gv4VzXcJU.png?r=271</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABaJ7WwyasN17sQxZs_x4C5rxw6dQHthfeV4R7TiMoYUJHnjxaVq859pqf_fQ6yPg_w6C7SiFZMZU64iEy4q_5KGvjtwprSu4telb4w4.png?r=013</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>신조 다케히코</t>
+          <t>언털 님로드</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>나가노 메이,미우라 쇼헤이,시라하마 아란,야마모토 마이카,니시다 나오미,사토 류타</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>에이드리언 브로디,토퍼 그레이스,앨리스 브라가,월튼 고긴스,알렉 타크타로브,로렌스 피시번,대니 트레조,루이 오자와 장젠,마허샬라 알리,케리 존스,데릭 미어스</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>앨릭스 릿백,마이클 핀치</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>십대 영화,십대 로맨스,일본 영화,드라마 장르 영화</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>미국 영화,액션 &amp; 어드벤처,SF &amp; 판타지,SF 공포 영화</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>무서운,폭력</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABd_k3PhR7YyL4CaeOwMqGxKzuMmMV_8zAyjcuaiYkxlE0zEyZc-lmkyNDc0yeIM0Lq1ZK5Mo8g5NHD6w-0AD77R8YUYb9egnyw.jpg?r=28a</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABYQF1ZOI3If_IDkUSBBdLVN8vAEEXECAUuORpOrE3abEbXIA9j1_1XqVEOVKgESa1qom_ywHejv_uBUOT5t9z-eQu8yXqRyDaQ.jpg?r=a03</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>인시디어스 3</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABW8_qV_Sd28ttKNcJ6c40dTz0oZ2RNJv4on4E8kigoO2n5m3iPsRZ8ZtBIqwzYmuvygPzeIqx3pIxA4pvzQ3O0bF_umZ5ldrmNkz2Sg.png?r=6d1</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>리 워넬</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>더모트 멀로니,스테퍼니 스콧,린 샤예,앵거스 샘슨,리 워넬,테이트 바니,마이클 리드 매케이,스티브 콜터,헤일리 키요코,코벳 턱</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>리 워넬</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>미국 영화,영화·호러,비명 유발·10대</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>등골 서늘,무서운</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABWeuZ6UXz8kepcR5hBIAZN7F3px1IIfQjadgmaCC6bCLVSuLCUnYBRRnwsYXle4EaDE2jWsdQNuYl0G0WbRnJUSPTU29t9QG0w.jpg?r=86c</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>위자</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABTIPP6fp3K6msYclU8UgKKG0PfcHA0qIbmsnaANMmvlPTTQ4Z_2eIIPRTLZjEUZqkduw02bqA-7ucu7FOjlNuag_ciIU_0fswkabjmA.png?r=271</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>스타일스 화이트</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>올리비아 쿡,아나 코토,대런 카가소프,비앙카 A. 샌토스,더글러스 스미스,셸리 헤니그,시에라 휴어먼,서니 메이 앨리슨,린 샤예,비비스 콜롬베티</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>미국 영화,영화·호러,영화·호러·초자연,비명 유발·10대</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>등골 서늘,서스펜스</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABRYLuZcHn-ntPiCekLKrpPWMpOyWZ0IexZgbpd554OWrr9PAMdKio3pSKVeq2aTc1E065CjGhvCdqamNV7JrjlqTSep-Bo0S6Q.jpg?r=74a</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>데이 오브 더 데드: 블러드라인</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABS5W3ThzQ5uEU3UCQyGy-IOK-Yr88dV2-GzYn4Rqp-UkxYhKEAr9EwXV0f8JGzTWEBiSMg_HHNPlUA1BBm6atbfvhc3lWUj5TkAYZaU.png?r=554</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>엑토르 에르난데스 비센스</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>조나단 스캐치,소피 스켈턴,마커스 뱅코,제프 검,릴리언 블랭큰십,울랴나 찬,섀리 왓슨,아타나스 스레브레프</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>마크 톤데라이,라스 제이컵슨</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>미국 영화,영화·호러,피투성이 호러 영화,인디 영화</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>폭력</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABc5ZRw_nZSp_vpnfVh3gDx8eIX2mfLBM0TOmCbGGU4hlyJHbauxNJuhvEnxlV4xgHOmPqHTyhi0xc58jSxvFN3jMgrUrYA3qhA.jpg?r=7f3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>포제션 오브 한나 그레이스</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABQNfkGiZ2qSjxx7SP4-Pfz8psN_mImsMSaG1CkdSYZwucijzsJ2f8zoxdcnpyOVTi-Rj6KABbGfldVIzE0GF13-vGtBwY9fmim17Gf8.png?r=60e</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Diederik van Rooijen</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>셰이 미첼,그레이 데이먼,Kirby Johnson,닉 순,루이스 허섬,Stana Katic,맥시밀리언 맥나마라,Jacob Ming-Trent,제임스 A. 왓슨 주니어</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>브라이언 시브</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>미국 영화,영화·호러,피투성이 호러 영화,영화·호러·초자연</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>무서운</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABalAnaGiZKGiPsPBQXH5cEvKx866vxvaP-c7n5LmIw54bIdXZ5xztdmlpUdlY8yO3Xp97ougNM5uYydwINmtL_kHcizOoV7E_w.jpg?r=68d</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>데스티네이션 2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABfc7sGm_ItV-dviAiiLgT7xy2zv1_hQCOInJFZs2ZenRIV0Z3tDuLCrsTxlo3rLsNkhQbhFR3_MkN-nayAp-69OP71-d8-ix0OpY5cc.png?r=80d</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>데이비드 R. 엘리스</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>알리 라터,A.J. 쿡,마이클 랜디스,테런스 'TC' 카슨,조너선 체리,키건 코너 트레이시,세라 카터,린다 보이드,데이비드 팻코,저스티나 마차도</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>J. 매키 그루버,에릭 브레스,제프리 레딕</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>미국 영화,영화·호러,피투성이 호러 영화,영화·호러·초자연</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>무서운,폭력</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABbRvUoHhss5tjQS5K07UGVce6RW_1vxz2Zzjq5G8uwCfO7A9RMvQIzF-n0ApKXwWH0W-tPNxLsG2VkBnAI63STQ5nj1Rbgd8lw.jpg?r=d83</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>토르: 천둥의 신</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABTSHCjQLqXSswGIVMukIBai3NNjfGJGZxEdRMA2Ga3oYzb5ppce1CgPtpOHfckl4HKqEY7b_8M093D5OFZk2eMKG0LP1_JItQZXDSRA.png?r=2cb</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>케네스 브래너</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>크리스 헴스워스,나탈리 포트먼,톰 히들스턴,안소니 홉킨스,스텔란 스카르스고르드,캣 데닝스,클라크 그레그,콜므 포어,이드리스 엘바,레이 스티븐슨,아사노 타다노부,조시 댈러스,제이미 알렉산더,르네 루소,스탠 리,루크 매시,숀-콜린 영,캐리 라자,줄리엣 로페즈,조지프 갯,할리 그레이엄,리처드 세트론,데일 고드볼도,힐러리 핑글,다코타 고요,맷 바탈리아,블레이크 실버,짐 파머,버디 소스탠드,아드리아나 바라자,조엘 매크레리,제이미 맥쉐인,아이작 캐피,대런 켄드릭</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>J. 마이클 스트라진스키,마크 프로토세비치,애슐리 에드워드 밀러,잭 스텐츠,돈 페인</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>미국 영화,액션 &amp; 어드벤처,액션 &amp; 어드벤처·블록버스터,코믹북&amp;슈퍼히어로 영화</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>흥미진진</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABUCtS0nS1ojSByfPzH_ND00OBg7eXfBrgZNhrWcU5Y3MBLkTwSXmkByjzMelNYFxJy6tZoKQQgBFyDwW28R5scFj21xFlCrngw.jpg?r=ff7</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>엑소시즘 오브 에밀리 로즈</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABRKlndMMHzGN8TEyZJppI7PNy3YGEfz4c-Shk1sTxpCFzb1rCICrYnDcBlS72EJ8tbx8d_39eGL-ZDFXFBP_urkpgVLa4iI0TGOb7wI.png?r=6a9</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>스콧 데릭슨</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>로라 리니,톰 윌킨슨,캠벨 스코트,제니퍼 카펜터,콜므 포어,조슈아 클로스,케네스 웰시,덩컨 프레이저,JR 보른,메리 베스 허트</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>폴 해리스 보드먼,스콧 데릭슨</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>미국 영화,영화·호러</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>어두운 분위기</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABQB-xiHEsq97PbY2w3Pf6XTLZ0JjzuWb4hpQ3ej0BYUBLaEfvXmxgXAUwMIJa1ceWP586wv3vLEkTcowT7SF7VMMFSnHbxQgIA.jpg?r=e20</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>레지던트 이블 5: 최후의 심판</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABRTRYK1UH0kEAHq2qkpMOgIojnqUwi8ogYq8xYR6EZruQWV2orGjlyCJbEBS0LS8ZiDAm2pdFn7kxthBtNA8PenY-7sBvWCYGd7rWTM.png?r=a23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>폴 앤더슨</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>밀라 요보비치,시에나 길로리,미셸 로드리게즈,Aryana Engineer,리빙빙,보리스 코조,조핸 어브,Robin Kasyanov,케빈 두런드,Ofilio Portillo,오데드 페르,콜린 살몬</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>미국 영화,액션 &amp; 어드벤처,액션·스릴러,SF &amp; 판타지</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>폭력,흥미진진</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABd8L9QqfCT-H0vmeHclTTh4AAsuiHhdyyzIqjhLAQdR5q-qE0xK_VEFR-3e3KCtAw9tlwK5kokTqqypOVzKjeHW82qEtbFcjcQ.jpg?r=a90</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>캐리</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABXrVOMqOeSN7xmmCLUT4G1Aq3hGBKdAH1ZxqfH5wWaGwpe3tbrXnKzDjlrZUwdEOIxAZlN50JQoa1WwtPYA3Uwxl_lX6yaZ-DY2lYBM.png?r=50f</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>킴벌리 피어스</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>클로이 그레이스 모레츠,줄리안 무어,주디 그리어,포샤 더블데이,알렉스 러셀,가브리엘라 와일드,앤설 엘고트,배리 샤바가 헨리,서맨사 와인스타인,맥스 토플린</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>로런스 D. 코언,로베르토 아기레사카사</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>미국 영화,영화·도서 원작,영화·호러,피투성이 호러 영화</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>등골 서늘,폭력</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABacXgY09fnaSyec7sON-rNgZL4MFeYrkzz3YV7nBF9GzUUrEulAa-SfUYtgXbGCmH_GaTlTpRhXKJzyoOLmp0g5BOu83JUunGw.jpg?r=3b6</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>래버너스</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABaoimGOIWcWQbeDZMNEAo_AXF7pfejFt6DHKmo0BB0PoEvi9AJ69gsEm5GVSZzvtVarpMr11oHtPkzf0Ji2FrVYvOr6sJjSddX-3SDSZPhpanGnQGjsAfH6e04zVqMvtUoie1JqdN7l98HmsWXFeqzbSQfCYdcVTSBjcGcfN35E.png?r=455</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>로뱅 오베르</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>마크 앙드레 그롱당,모니아 초크리,샤를로트 생마르탱,브리지트 푸파르,마리-지네트 게,미슐린 랑크토,에두아르 트랑블레-그르니에,뤼크 프루,디디에 뤼시앵,로베르 브루예트,파트리크 이봉</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>캐나다 영화,영화·호러</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>불길한 영화,어두운 분위기</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABdNu1vIvKn3DHxUZ8TmSiYwjtAd8dvME_T_ttt7AtHxRGGIjNeXxDDL6jdPtFLlFGQzT0vIoXbVAfyr_YP44DqJ_VlzXsOzhyQ.jpg?r=8ca</t>
         </is>
       </c>
     </row>

--- a/movies1.xlsx
+++ b/movies1.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:L34"/>
+  <dimension ref="A5:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,1276 +356,1216 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>첫 접촉:잃어버린 아마존 부족을 찾아서</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+          <t>프리스트</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>흡혈귀 떼를 물리치는 전사가 된 신부. 신부로 분한 폴 베터니가 납치된 조카를 구출하기 위해 사활을 건 싸움을 시작한다.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1시간 27분</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABX65jLlokY89ZArDXuFgPyBAL-kOT8Cz4f_kTiwGkuaihP14I5RSWxyAvraPCBK1YARmpNjvbbsyP-DkhbkkLk_WDjEBbDZ4HCN3EBk.png?r=453</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABVPNGsRv_baoIhpbf9OIYFQNEoRzJu0ekFZtBel_Z7QYiBs601vgdHTlaN80iK4v8t-Pg4mV6kmY35i2MKOHuatVzDUndhK2kxvlzzk.png?r=985</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>앵거스 매퀸</t>
+          <t>스콧 스튜어트</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>로버트 린지</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>폴 베타니,칼 어번,캠 지간데이,매기 큐,릴리 콜린스,브래드 듀리프,스티븐 모이어,크리스토퍼 플러머,앨런 데일,메이천 에이믹</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>코리 굿맨</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>영국 영화,다큐멘터리</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>미국 영화,액션 &amp; 어드벤처,SF &amp; 판타지,액션·SF &amp; 판타지</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>무서운</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABdJgKS9AXli5PEAUD8mqaZ3UhEWAI7fUlKGh8dAAguJnZaDhTIfuBiXmbphfUe5wZZu8dRWLAH6jaJ_KmxQvPNyI8m8FXGnPBw.jpg?r=c1b</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABV8IPWOpOPwvXBmiqL6yD1ZW538lYX9_oABbGPx5IPVt61gzu2erxLrfU68e1yHpptdq8hEL1OIMktdeXPzfAbJqs8dheAzeEQ.jpg?r=d15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>마지막 나치</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+          <t>레지던트 이블 5: 최후의 심판</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>모든 게 끝난 줄 알았다. 하지만 눈을 떠보니 세상은 끔찍한 돌연변이 천지. 엄브렐라 사의 치명적인 T-바이러스로 인해 사람들이 언데드 군단으로 변해 버린 상황. 멸종 위기에 처한 인류에게 남은 희망이 있다면, 그것은 앨리스뿐.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1시간 35분</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>청소년은 관람할 수 없는 영화</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABcTanNPRslCpoMZkHhVa7VA1CExa9F36Ad9MY5xegynxL8aGZFWLyHG1Tq_fxh4ij8-SYv0T3eTWRiCYsimTeYKDQTf9azxY5qD9Hck.png?r=617</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABRTRYK1UH0kEAHq2qkpMOgIojnqUwi8ogYq8xYR6EZruQWV2orGjlyCJbEBS0LS8ZiDAm2pdFn7kxthBtNA8PenY-7sBvWCYGd7rWTM.png?r=a23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>폴 앤더슨</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>데이비드 모리시</t>
+          <t>밀라 요보비치,시에나 길로리,미셸 로드리게즈,Aryana Engineer,리빙빙,보리스 코조,조핸 어브,Robin Kasyanov,케빈 두런드,Ofilio Portillo,오데드 페르,콜린 살몬</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>영국 영화,다큐멘터리,프로그램 특징,서스펜스</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+          <t>미국 영화,액션 &amp; 어드벤처,액션·스릴러,SF &amp; 판타지</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>폭력,흥미진진</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABbWKM0ap3_yOhfGL-oNAFaK_uZhj0JienFWu6tpeTrypz-EGv7Si-_Cy2hT1VHvsnvldiOvWKO35QS4oKXGUMna2xXEcpdK6Og.jpg?r=e5b</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABd8L9QqfCT-H0vmeHclTTh4AAsuiHhdyyzIqjhLAQdR5q-qE0xK_VEFR-3e3KCtAw9tlwK5kokTqqypOVzKjeHW82qEtbFcjcQ.jpg?r=a90</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>윌리엄스</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+          <t>무서운 영화4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>폭소의 도가니 《무서운 영화》가 네 번째 이야기로 돌아왔다! 코미디 황금 명맥을 이어 온 패러디 영화의 진수. 《밀리언 달러 베이비》 《쏘우》 《브로크백 마운틴》까지, 주옥같은 영화의 명장면을 한데 모았다. 배꼽 붙들어 매시길.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1시간 23분</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABUHeZ2ips0msKTGJAgY_Q6jtFbpWjJwd9c75tbr2oE3VhDtu2RwyZjpVyLkQ_XfG9YfVNGOvlCQhHgDlakzquoFVjN2IzZ_5kmTbgEQ.png?r=8bb</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABYkHBOURChm1ZcloE34OEpOMWn2h8715bba4V9PDrs2Lq0akxccwgRZXk5wRyWOXpI_JEPaiobH0h61wlImwvdDvEVstvW7Ca3a084w.png?r=c58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>모건 매슈스</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>데이비드 주커</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>안나 페리스,레지나 홀,크레이그 비에코,빌 풀먼,앤서니 앤더슨,레슬리 닐슨,몰리 샤논,마이클 마센,크리스 엘리엇,카르멘 일렉트라,크리스 엘리엇,샤킬 오닐</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>크레이그 메이진,짐 아브라함,팻 프로프트</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>전기 영화,영국 영화,다큐멘터리,다큐멘터리·실존 인물</t>
+          <t>미국 영화,영화·호러,공포 코미디 영화,코미디</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>감동</t>
+          <t>선정적,푼수 캐릭터</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABcOngE-w1KNrFYvJI-K2CslZ6HfDWwqmzaC3pCR_BSAxTFcwG1zK9Eaw7xHwAwj8qDycG0moYWEUzTgnyoImgcNLKnmMiPBvEA.jpg?r=bb7</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABaZ5LnJHsWfaqDtadYdMMCklcO-89WwwS-C_TNDMsXQeEmxGAk8tGuFmf6_jzK8_NmTR978pdMn5EoT71iavVURBY48mXVkktQ.jpg?r=a7e</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>최후의 호흡</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>인시디어스 3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>죽은 엄마와 얘기하고 싶어 영매 엘리스를 찾아간 소녀 퀸. 그날 이후, 퀸에게 이상한 일들이 일어나기 시작한다. 환영인지 실재인지 모를 남자의 출몰, 알 수 없는 말을 건네는 이웃 할머니. 퀸을 위협하는 존재의 실체는 과연 무엇인가.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1시간 37분</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABevJcBuicDSLcLN8MwAAxO-zyzl5yDgbuN5ntCjHOTjMNKpBRlUN_ciUxpfk1E0fkpqaomYsdm7WKjuCJjTQfQXJYUEQo9o04WuvFnQ.png?r=28a</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABW8_qV_Sd28ttKNcJ6c40dTz0oZ2RNJv4on4E8kigoO2n5m3iPsRZ8ZtBIqwzYmuvygPzeIqx3pIxA4pvzQ3O0bF_umZ5ldrmNkz2Sg.png?r=6d1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>앨릭스 파킨슨,리처드 다 코스타</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>리 워넬</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>더모트 멀로니,스테퍼니 스콧,린 샤예,앵거스 샘슨,리 워넬,테이트 바니,마이클 리드 매케이,스티브 콜터,헤일리 키요코,코벳 턱</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>앨릭스 파킨슨</t>
+          <t>리 워넬</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>영국 영화,다큐멘터리</t>
+          <t>미국 영화,영화·호러,비명 유발·10대</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>서스펜스</t>
+          <t>등골 서늘,무서운</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABQSqVDA7rNZOwF7n67QSWEcNeLxzXTnIvuouqvQirGDmuKh7uKVzEl6xO3TGkTOsmSMMwWrp5gaAtqNHen5gik91DRbHOgtH9w.jpg?r=653</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABWeuZ6UXz8kepcR5hBIAZN7F3px1IIfQjadgmaCC6bCLVSuLCUnYBRRnwsYXle4EaDE2jWsdQNuYl0G0WbRnJUSPTU29t9QG0w.jpg?r=86c</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>트루스 오어 데어 - 감독 확장판</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+          <t>직쏘</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>잔혹하게 살해당한 시신이 차례로 발견됐다. 10년 전 세상을 뒤흔들었던 직쏘 킬러를 모방한 사건이라 여겼다. 하지만 희생자 부검 결과 이미 죽은 직쏘의 혈흔이 발견되는데! 그렇게, 게임이 다시 시작됐다.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1시간 31분</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>청소년은 관람할 수 없는 영화</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABUmI1IRYG5wn-wz8RmwsPuEmc8GMECcaOWjcWatcXdaFNH_P8YKgZ2Eewsho-C6NB-jIF4UKXKg7-RFm2xUQKwJUliGh75hbr5ZEFso.png?r=916</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABehsP1MePrV0tht3iMCEOGodGbPc8cNbX7Vxpfvj9aSAxu_jP3cxBqLeKlqy0rpRTlm8b_rrEvFoRVH4uSJeNIsu9NL-HMPIB2Gqu3k.png?r=d2f</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>제프 와드로</t>
+          <t>스피리그 형제</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>바이올렛 빈,랜던 리보이론,루시 헤일</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>맷 패스모어,토빈 벨,칼럼 키스 레니,해나 에밀리 앤더슨,클레 베넷,로라 밴더보트,폴 브론스틴,만델라 밴 피블스,브리트니 앨런,조사이아 블랙</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>조시 스톨버그,피트 골드핑거</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>미국 영화,다큐멘터리,다큐멘터리·음악 &amp; 콘서트,음악 &amp; 뮤지컬</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+          <t>미국 영화,영화·호러,피투성이 호러 영화,영화·슬래셔 &amp; 연쇄살인범</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>무서운,폭력</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABRiTjE30LpYlmC8L7TnWD2IPf4XbPE0tlG5ImcukwhtZFA0WT_xMPUgEj8Sw27r5JiDD9CJlvC1-ZUPDC2Uep2VG-OHSCvJhSw.jpg?r=335</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABapEP48FAagJjYZPiErcELfXN5J09GSzd89YernWsCn8QIam-gGCTlaxYkfOqXnayrLXQdsfIEPCGGUvoU3f0BJ_dt3jo380UA.jpg?r=059</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>밥 라자르: 51구역과 UFO</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+          <t>제인 도</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>가업으로 부검 일을 함께하는 아버지와 아들. 어느 날 밤, 신원 미상의 여자 시체 한 구를 맡게 되는데. 시체에서 발견되는 끔찍한 흔적, 그 설명할 수 없는 사인은 무엇인가.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1시간 26분</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>청소년은 관람할 수 없는 영화</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABQk-EFH9d5TjcvHSPuTBNPeaiPu2ClgVVeEuCQZ6iWBHbKLb3KlA8DXr7ewpJcfQhhrghUisuoXyV7VIWrgrlx6pURJOJ4mEWWUFpvY.png?r=122</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABa9hsOxm2kiNlOAWDiRLAkOYb8x395BhMlL7bv9Zz-6KL10riMj4rci-uFd_3pICvLts3Kx223ebz71K1dIDSut1V76gDw5hCgGrR80.png?r=e98</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>제러미 케니언 로키어 코벨</t>
+          <t>안드레 외브레달</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>로버트 라자르</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>에밀 허시,브라이언 콕스,오펠리아 로비본드,마이클 맥엘하튼,파커 소여스,제인 페리,올웬 캐서린 켈리</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>이언 골드버그,리처드 나잉</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>전기 영화,미국 영화,다큐멘터리,다큐멘터리·실존 인물</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+          <t>미국 영화,미스터리,영화·호러,피투성이 호러 영화</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>불길한 영화,무서운</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABbEJH14ezDkrbaw7SxtWqaluOZaN1qVJA6c3pn2kpwir0UW0RQvCJUviomuLi2d8HyHRZMxfjybbJLt0QwQa4ptF1PqsCKWdJg.jpg?r=e43</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABeni972qYGnAQfz_bCszDMmddGgP1H0ODiJ5udFo8LvC_EUgQCDf1toWxcFrR_NsuuHIoLH9g7HRV8F0njUEYFZJPVK9p1DEZA.jpg?r=bed</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UFO, 은폐된 진실</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+          <t>슬렌더 맨</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>친구가 사라졌다! 인터넷 괴담 속 존재 슬렌더맨을 소환하는 의식을 치른 뒤 일어난 일. 그리고 실종된 친구를 찾기 위해 또다시 그를 부르고 말았으니. 절대로 눈을 떠선 안 돼! 눈을 마주치면 미치거나 끔찍한 죽음을 맞게 될 테니.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1시간 33분</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABf3HI8FdD9bObqwpIsqo5xsae_DAhmTu7oP-_a8VT1dad3PrwglGhiKlhucqjT8vV0nKTweTmyNZyBnkGlI81nn1QNZqADqrY4LdnM0.png?r=043</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABe5eaazSYRimea-UIj75h8T3BfhPi2ymuTxvs6BRC4ke9HABfnHLepqmETAbVD2FGExxFgNjK6Ye1RRHLs0zV1d2hIQIb3W6RLz3haw.png?r=eb8</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>마이클 마졸라</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>실뱅 화이트</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>조이 킹,줄리아 골다니 텔레스,재즈 싱클레어,애너리즈 바쏘,앨릭스 피츠앨런,테일러 리처드슨,하비에르 보테트,제시카 블랭크,마이클 라일리 버크,케빈 채프먼</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>마이클 마졸라,스티븐 피크</t>
+          <t>데이비드 버크</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>미국 영화,다큐멘터리</t>
+          <t>미국 영화,영화·호러,영화·호러·초자연,비명 유발·10대</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>논쟁을 부르는</t>
+          <t>등골 서늘,무서운</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABQKgDb8p7T63MuXXJWDVGWZZs0n77Vhvg-niZXq-hcV19AwnBKOGzMdW83EZmpFvbkzs3v_DZqIM01vdjB0UH6WP6garn_Qs4w.jpg?r=f49</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABUTbv2TBnLkNScM6as41VeOdQIBC1EYZXZYwN3XjmhEsAjqOFMhrQ_YoOHJbvIjBy6SHeHUjFvVGY4ftn0Xiq0SodYd2D8ooYQ.jpg?r=544</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>알파고</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+          <t>웜바디스</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>젊은 남자의 뇌를 먹고 그 안의 기억을 흡수하게 된 신생 좀비가 그 남자의 여자친구와 사랑에 빠진다.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1시간 37분</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABZ4rLhkGKcWmKUmxgnzM7hu9KakNGOLBIC8-sn2iddMpgGJANY9oy9A2w5lj--TBwMjvnA_b5OrYF1Xp1XDYKSW0O1Up-oaStClv31g.png?r=b9e</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABeET1yHYPGFvitGkiPtwld8rNp355QpAtkvtinV6pqNY_g89RSldGc14nVicfTizB27zIwDX08C7SbWHG2Kcis4E1LQy_ZSTyBs5rWQ.png?r=48a</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>그레그 코스</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>조너선 러빈</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>니컬러스 홀트,테레사 팔머,애널리 팁튼,롭 코드리,데이브 프랭코,존 말코비치,코리 하드릭트,대니얼 린드레스케이,뱅상 르클레르크,클리퍼드 러듀크베일런코트</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>미국 영화,다큐멘터리</t>
+          <t>미국 영화,영화·도서 원작,영화·호러,공포 코미디 영화</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>감동</t>
+          <t>무서운,로맨스</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABYEN0iXm_ECVJpmeZahgNYwV65mEfd_GVYWk7RtVoJsvpRQIDlxx6ddcp_erO3CcGfUpz34eVJj4OGeyeylWD9fjbVx0rSjtfg.jpg?r=b27</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABfLvspMQtNe6AAUi6xufy2J8hafX-zYAk0uVPEXwFV_yKnGKJtwlpmjkTGd36vcFF8h7qOcm6rDMdE1_y-8-SfD-8yXr1OJ66w.jpg?r=902</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>마이클 잭슨의 디스 이즈 잇</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+          <t>파이널 데스티네이션 5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>끔찍한 다리 붕괴 사고에서 가까스로 목숨을 건진 사람들. 생존의 기쁨도 잠시, 다시 죽음의 그림자가 드리운다. 사신과의 싸움을 시작한 그들. 달라진 죽음의 규칙을 발견해 잔혹한 운명을 바꿀 수 있을는지. 당신, 아직도 살아있는가?</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1시간 31분</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>청소년은 관람할 수 없는 영화</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABVGurHQ2WKDKjGAd4aeUwlXIi9enOhWlcZkBS8fqMagzMC8x8jb6VvoC8T3qCxiBIArK7hCu1aEzshBrXB4tTMPpJNJ4NpuU8QbxKJE.png?r=18f</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABR3-UfHWT9bfciEGijC3xsw4orvarbM5ey74aXLDRmwYn2O-zgmsS8HpqBs5TxOcSW_f3kF3a_AZiDeCFbUdZpFI7t-pQisak-AJOTA.png?r=931</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>케니 오르테가</t>
+          <t>스티븐 퀘일</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>마이클 잭슨</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>니콜라스 디아고스토,엠마 벨,마일스 피셔,엘런 로,재클린 매키니스 우드,P.J. 번,아를렝 이스카르페타,데이비드 코에너,코트니 B. 밴스,토니 토드</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>에릭 하이저러</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>록 &amp; 팝 콘서트,전기 영화,미국 영화,다큐멘터리</t>
+          <t>미국 영화,영화·호러,피투성이 호러 영화,영화·호러·초자연</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>가슴 뭉클</t>
+          <t>무서운,폭력</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABVUiyo2-BIojtGLz2nMKFnM7ewbWAjAUyd4C38rvuChz_MVPNwsyVdzLJlzq4gopVeVwNQHs_yT-D-rfLD_vDNlehDe5SHBQrQ.jpg?r=6c1</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABbqPXNSjI1U8tZIfZJ-tiM3AitY7UBrZfHMj8oGeBmPpoTxe-loumFg7GW3WLQ-ZW3aMv_qxk29lWKIcbwO7FauoEmQHOk1TSA.jpg?r=639</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>창의적인 뇌의 비밀</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+          <t>위자</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>단짝 친구의 갑작스러운 죽음. 남은 친구들은 아직 그녀를 보낼 마음의 준비가 되지 않았는데. 결국 다 같이 모여 낡은 보드게임을 꺼낸다. 그리곤 죽은 그녀와 대화를 시도하는데. 하지만 그들이 불러낸 것은, 저세상에서 온 악몽.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1시간 29분</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABe2xRTjJKetVqcKZ716mpYWWlTUzbShHSnpEswDmnvnGLBQsF2f5dMJ88gWluWurnMETHbkKf02rBxEbufhcjanorTKJOpZvQZS2i8k.png?r=410</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABTIPP6fp3K6msYclU8UgKKG0PfcHA0qIbmsnaANMmvlPTTQ4Z_2eIIPRTLZjEUZqkduw02bqA-7ucu7FOjlNuag_ciIU_0fswkabjmA.png?r=271</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>제니퍼 비미시,토비 트랙맨</t>
+          <t>스타일스 화이트</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>데이비드 이글먼</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>데이비드 이글먼</t>
-        </is>
-      </c>
+          <t>올리비아 쿡,아나 코토,대런 카가소프,비앙카 A. 샌토스,더글러스 스미스,셸리 헤니그,시에라 휴어먼,서니 메이 앨리슨,린 샤예,비비스 콜롬베티</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>라이프스타일,미국 영화,영화·도서 원작,다큐멘터리</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
+          <t>미국 영화,영화·호러,영화·호러·초자연,비명 유발·10대</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>등골 서늘,서스펜스</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABVJHzmaPgPHWN-lGHQ0sRH8u_xe-SK9PxPO7a2MHIHw13iga-eLWfxpYtoP3kkWBWnY0KfP4bIN1tf7MKx3u2O7nfKZLNE-uiw.jpg?r=309</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABRYLuZcHn-ntPiCekLKrpPWMpOyWZ0IexZgbpd554OWrr9PAMdKio3pSKVeq2aTc1E065CjGhvCdqamNV7JrjlqTSep-Bo0S6Q.jpg?r=74a</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>레이디 가가: 155cm의 도발</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+          <t>언프렌디드: 친구삭제</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>별생각 없이 인터넷에 올린 영상. 장난삼아 저지른 괴롭힘은 친구의 자살이라는 비극을 낳고, 그로부터 1년 후 온라인에서 잔혹한 복수극이 시작되는데. 누구도 안전할 수 없다. 정체를 알 수 없는 추격자의 손에서.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1시간 22분</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABUAX8vRhGyQgDudsZkQEiK9k2IXDJTVLICeLJaj0FXLyiF3Ke4Z7yxwt2A85HjLRgS7aB-t9BcEtdldy1TokyRj25soX44-ftZYqlOYbzQUyk3sX_6mA6Zlewqhc6zvvdYYF0G6KC4E6bKgVT0e8KIYZhb4oYh3MzTFqU5NUUB4.png?r=1ff</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABaBkH24h7hscrtc4C70TQJq-pLMEBJZ48T3HuJ42Qr0aSF6STnxnWLcmflY2kwFjrDzLXutT3gtltW7xAAQTFOdWpupqcuR54p6fVGk.png?r=1f6</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>크리스 무카벨</t>
+          <t>레반 가브리아제</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>레이디 가가</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>셸리 헤니그,모지스 스톰,르네 올스테드,윌 펠츠,제이컵 와이소키,코트니 핼버슨,헤더 소서먼,매슈 보러,미키 리버,캘 반스</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>넬슨 그리브스</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>록 &amp; 팝 콘서트,전기 영화,미국 영화,다큐멘터리</t>
+          <t>미국 영화,영화·호러,영화·호러·초자연,비명 유발·10대</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>감정 풍부</t>
+          <t>무서운,어두운 분위기</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABfRZxxzAd6NTenbuIeQbIoWWf3j-XiIsKi307p8eFX1YqVEDSfA7T3mN8R0HXEnk92yKCHZnHZn_9WbOA-oX9Mt1EGsIDwxh3g.jpg?r=949</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABdmCWy2bqbGUMgsFx8s_hcfDrTLT9ewmm2Ts-KV_qDYvqoBPlPw9gniSv0KfEQrYTSYWJHYyBt3gs7jr99AbjxahzOYmLS9Rvw.jpg?r=b18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FYRE: 꿈의 축제에서 악몽의 사기극으로</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+          <t>샤이닝</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>잭 토런스는 비수기의 적막하고 으스스한 호텔에서 생활하며 서서히 광기에 빠져들게 되고, 부인과 어린 아들을 공포에 빠뜨린다.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1시간 59분</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>청소년은 관람할 수 없는 영화</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABQs9MOJRmjbhDw-T155YoclFYPww3TqDrZYWKfTMwVc6fqyKws2RUZzFmbGjcy47fvU0hNVgNIbCQDBFwCJ0dOPyj6hNLCnu6X8s_4FBsRVhifbUr2nEpz-2cBghuv_FFQDhbG56Y1ndAS3i_x5vzY7zqeWiuMiWS8kfhlgzkZE.png?r=b34</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABS6fDH2WJT0MPbnbNUpx51MEReOTsA3yRL5KOf8h9BCeqFPlkSyVbjpA5o9Wl8DT2e2WOuNn8OaSPw3ci5MSKY53wnGMKHpvVado-rw.png?r=6a1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>크리스 스미스</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>스탠리 큐브릭</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>잭 니콜슨,셜리 듀발,대니 로이드,스캣맨 크로더스,베리 넬슨,필립 스톤,조 터켈,앤 잭슨,토니 버톤,리아 벨덤</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>크리스 스미스</t>
+          <t>스탠리 큐브릭,다이앤 존슨</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>미국 영화,다큐멘터리</t>
+          <t>미국 영화,영화·도서 원작,스릴러,스릴러·초자연</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>도발</t>
+          <t>무서운,서스펜스</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABRT3-s9LxDCJM2YqeucMopkPbpQ-OS3_A8cbgx14W22Va_W-Oa7jLYP7NKJKr6gy3U0Kesgk_lharx5XelxQ7821-ZO8z3WyCA.jpg?r=0f3</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABVCcKSMEUdpfRDYkGMhXZfOdcc7vvAip7VzccfXKVciSfYp2LJGrgX8kb6q2kSaIpZcyyWDXHhNNLaP1hUaboeZU-i7rVT8W_Q.jpg?r=210</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>블랙 미러: 밴더스내치</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+          <t>귀신온천여관</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>고향 가는 전학생한테 따라붙은 왕따 학생 둘. 가족이 온천 여관을 한다기에 잔뜩 기대했더니, 무슨 여관이 귀신의 집 뺨칠 만큼 으스스하다. 식구들은 더 으스스하다. 때리는 애들 무서워서 도망 왔더니, 뭐야 여기가 훨씬 무섭잖아!</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1시간 48분</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>만 12세 이상의 자가 관람할 수 있는 영화</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABYt_xDA02FD4RqZaB-yPeOU4TfTr9v02OZdGcFzFvd8pmGlVNp1HBvB8WfDlSfcblxDthJyT_jp4zJWmxkP1OMHt2hBJcq1vli2xuzuh34LiY1H5swBEEWQwojV7i2Ct4Fohg0OoG2XDq-IEwr6iS0O1umyQZs5TwZtRz1I6EPw.png?r=bc8</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABfH_jvWz0OLU8jIhY_t8JAhWauUyD2Uo5H5u2uyy1co7bMcbdCWmnhsuz4l9vWOOHdFfzMiTOgUd4d22R9jwtyl7m85LLTEGYQk6bX0.png?r=248</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>피온 화이트헤드,윌 폴터,크레이그 파킨슨,앨리스 로우,아심 차우드리</t>
+          <t>장팅후,훙옌샹,린허쉬안,곽서요,나가영,주미미</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>영국 영화,영국 TV 프로그램,TV 드라마,TV 프로그램·SF &amp; 판타지</t>
+          <t>십대 영화,대만 영화,중국 영화,영화·호러</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>현실 붕괴,색다른 이야기</t>
+          <t>푼수 캐릭터,서스펜스</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABdsXViZG9oBov-AAveWtp6QWzFAgOpLgAfmoJTby7rKVDLb-m04gaCZMJkj7pkh_3hcLN_xRImpI-RlqpDPNawk-fp22c38Dn5hzbzhbN3cVXU4c9RvWzm41FOo-LDFV9EGghyDUo-T7vJw4kdU5HQ.jpg?r=cbc</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABTUWY9lFt_oAjl27EBfMWszNTUGzJenMTWXuH5EzLUSKxh8l-8X1UShZ4T4FpEyouP3ZLP6GY9dwVu-6jhdklqVGwYOWE4ElXw.jpg?r=5aa</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>간츠: O</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+          <t>퍼펙션</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>천재 첼리스트였던 샬럿. 10년 만에 돌아오니 신예 연주가가 정상에 올라 있다. 새로운 스타를 향한 그녀의 감정은 질투일까, 음악적 갈구일까. 그게 무엇이든 서막에 불과할 뿐. 지축을 뒤흔들 샬럿의 도발이 시작된다.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1시간 30분</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>청소년은 관람할 수 없는 영화</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABWV6hj2h2P3dozZg3PxrC9GRb_PG7xAbDKCeBpt0Z1IPKpQmnLMTVr6nFNS3efvMjKMb5e0k6kTIDRAtzv6gUTNEzXecMUmxyRtiwIc.png?r=259</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABfIdd2V39by2aadxBtxb67BshxNlRv1K8OWtwEzw3On8CkmH_RNw084j3uY0-M1G8odz6XdOzqGTeiNmad9y0BRSFXLfEDGhZJAJpe5Sxls6jVAr_x7eY1wCEWYqKj4Kl2mUGr-XbrXXUWE0mcTsBkMbWLfS7VTGuX2oTyWMgu4.png?r=281</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>사토 케이이치,카와무라 야스시</t>
+          <t>리처드 쉐퍼드</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>오노 다이스케,M·A·O,카쿠 토모히로,하야미 사오리,이케다 슈이치,켄도 코바야시,레이저 라몬 RG,레이저 라몬 HG,츠키야마 마사네,오노사카 마사야,츠다 켄지로,오가와 테루아키,요시다 히사노리,가지 유키</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>앨리슨 윌리엄스,로건 브라우닝,스티븐 웨버,엘레이나 허프먼,마크 캔드보그,그램 더피</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>리처드 쉐퍼드,에릭 C. 차멜로,니콜 스나이더</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>일본 애니메이션·호러,일본 애니메이션·액션,일본 애니메이션·SF &amp; 판타지,일본 애니메이션 영화</t>
+          <t>LGBTQ 영화,미국 영화,스릴러,심리 스릴러</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>폭력</t>
+          <t>서스펜스</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABVHvydJUk-JHPeSyvoiK59Lrrwa3gcFs7MAb_C0dxHQpWbXpnEJcCQp6Y1uVJiGZen9nGgfWf9Z83x8N_sC7krjLvL5HN4a-FQ.jpg?r=7cb</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABTctcDOxydqZxgTvRPF0gEln8YaiP45fnjueEgkBHzQxogq1EdBXW1Pa96JbOWmCfaGJE7kJLBXarv8aUDqRobJ-UA19iD3beQ.jpg?r=c7e</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>더 퍼스트 퍼지</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+          <t>마더!</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>한 시인과 그의 아내가 살고 있는 조용한 외딴집. 어느 날 초대받지 않은 낯선 사람들이 들이닥치며 집의 평화는 깨지고 만다. 심지어 무례하고 거침없는 사람들. 손님들은 점차 광기를 드러내고, 집 안에선 이상한 일들이 이어진다.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2시간 1분</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>청소년은 관람할 수 없는 영화</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABTAsY8tfUmDAegUKXbpYxrBRlh_fmG9i_EI1l_GqmHv_2KHsHFb6Y-AZSK4gfilZ-jnHTMIR_ZMGh10AdjHFpsMweLFJTtcu0xy9HnY.png?r=19e</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABRxRcCpcxG6STMApwxZ227RWBpQGrleCUCJ6Zh3gN4V-P6Vsswj8j1P9iz4ozgG0n91jhoDBj-0cg7HgwsL85KA2TQxwQlqdwWaXc8E.png?r=337</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>제라드 맥머리</t>
+          <t>대런 아로노프스키</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>일란 노엘,렉스 스콧 데이비스,조이반 웨이드,스티브 해리스,머리사 토메이,모 맥레이,로렌 벨레스,패치 대라,크리스천 로빈슨</t>
+          <t>제니퍼 로런스,하비에르 바르뎀,에드 해리스,미셸 파이퍼,브라이언 글리슨,돔놀 글리슨,크리스틴 위그,스티븐 맥허티</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>제임스 드모나코</t>
+          <t>대런 아로노프스키</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>미국 영화,액션 &amp; 어드벤처,액션·스릴러,SF &amp; 판타지</t>
+          <t>미국 영화,영화·호러</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>도발,폭력</t>
+          <t>무서운,어두운 분위기</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABa_VASqVz1rpb93i3666w-vggaVs0jhir34hkOOZH0TtF5mYVC9jbrdU0PA2ezdjBMyR2COdYI7gD_aaIbw_dk2n-ROeqc7PvA.jpg?r=747</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABQWhdYyKjVrE7qHoBj9Cvw0MekpHWE3281YGeIU6z8O1aDVmLJYvFQgiyc8-7sm2nzCwAaaapmVZt3tVKXWXIKtHZkityYySuA.jpg?r=29d</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>리젼</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+          <t>비밀스러운 초대</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>한 남자가 자신의 전 부인이 여는 디너 파티에 초대받아 참석한다. 파티는 해묵은 상처가 드러나고 새로운 긴장 관계가 조성되는 불안한 자리가 되고만다.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1시간 40분</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>청소년은 관람할 수 없는 영화</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABdhlKGpB1lj7AR7481job8gDenVHoiV4IAf9dvTHj0FKkCiEXw31OJ8AMjir3UcyULpp1vuIDkvBKGZ-HZl7GXYf8ukX6U1-QuCaH-g.png?r=45b</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABa112Gfoc88DOVrf0xhVcZEkWIm9wi5kP5HQgfd6pR7hm3jiqXwVwI386IkbIU8vAqJz43gmOmuYNjUXIKvDqeno30-Bbx1s_UtcKrc.png?r=c3f</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>스콧 스튜어트</t>
+          <t>캐린 쿠사마</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>폴 베타니,루카스 블랙,타이레스 깁슨,아드리안 팔리키,찰스 듀튼,존 테니,케빈 두런드,윌라 홀랜드,케이트 월시,데니스 퀘이드,조쉬 스탬버그,얀시 아리아스,지넷 밀러</t>
+          <t>로건 마샬 그린,타미 브랜차드,에마야치 코리날디,에이든 러브캠프,미쉘 크루지엑,마이크 도일,조디 빌라수소,제이 라슨,마리에 델피노,미힐 하위스만,린지 버지,존 캐럴 린치</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>피터 싱크,스콧 스튜어트</t>
+          <t>필 헤이,맷 만프레디</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>미국 영화,액션 &amp; 어드벤처,SF &amp; 판타지,액션·SF &amp; 판타지</t>
+          <t>미국 영화,스릴러,심리 스릴러,영화·호러</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>등골 서늘,불길한 영화</t>
+          <t>무서운,폭력</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABQJ3TzIsDb03H01tUBLxqdNuhOlLAK7YMJmy52Gc9zrDzhoDY2rpUNbZ_aOH_H1NJkNF4ZeGeVzeY-4cZiar41dRwQnGT_eNCw.jpg?r=f94</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABVqQdRLsPJjlt2i6T86ORyfYQiBYHsHzqKIVxZcZ9BAf4A0D5ESjAXbMtyNOqK4rfsBR_b5OAv8Oj4jgkBu-SjOk2LqAYjfoIQ.jpg?r=b87</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>반 헬싱</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+          <t>오만과 편견 그리고 좀비</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>좀비로 들끓는 19세기 영국. 무술의 달인이 된 베넷 자매들이 치맛자락을 걷어붙이고 좀비와의 혈투에 나선다! 《오만과 편견》의 패러디 소설을 영화화한 작품.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1시간 47분</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABZIOc0lqhoSghXgZ5wlMolowo6kEuRU54v7iiZu35Dtj0vGNnyUTYOfb4g8NmObZnVu9eSM6boq_5MXdnehgBvn-47O_SDZXXIdZt3M.png?r=1d2</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABXiSDBVgnoIglc1NyMHcobVwUukOf1FI8snIsCMlnNgsJsxs1hN_bPi5caPLdDTFrBm-4KGwqBOSnKWtP2AvGZOWAWszkpX6qN_QPD0.png?r=c4f</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>스티븐 소머즈</t>
+          <t>버 스티어스</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>조시 매런,휴 잭맨,엘레나 아나야,앨런 암스트롱,윌 켐프,실비아 콜로카,리차드 록스버그,슐러 헨슬리,케빈 J. 오코너,데이비드 웬햄,케이트 베킨세일,로비 콜트레인</t>
+          <t>릴리 제임스,샘 라일리,잭 휴스턴,벨라 헤스콧,엘리 뱀버,밀리 브래디,수키 워터하우스,더글러스 부스,샐리 필립스,찰스 댄스,레나 헤디,맷 스미스</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>스티븐 소머즈</t>
+          <t>버 스티어스</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>미국 영화,영화·도서 원작,액션 &amp; 어드벤처,액션 &amp; 어드벤처·블록버스터</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>영화·도서 원작,영국 영화,영화·호러,공포 코미디 영화</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>위트,폭력</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABfOhMzt10qMYpckhoELtCr_6MewdPX_SEVl-BzylNtM-3FhbpHntR_-wXoB_kF-OTu2O1sh6acS6I5A0IeV55plzvW4cHRXq2w.jpg?r=4c5</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABe8twpXlVGpaAv6bsdgdpHpIX2jRyXx9NVLYZ64yaqcI4MouDqsMc4hr-87xX8T0w5lTy3JDEOFLFyFtAltRVAPhpP6cD9Rh0g.jpg?r=e55</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>프리스트</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+          <t>범죄의 재구성</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>철옹성 한국은행이 뚫렸다! 모든 시스템을 속이고 거액과 함께 사라진 사기꾼들. 증거와 돈, 모든 것의 행방이 묘연하다. 목표는 하나였지만 서로 달랐던 그들의 속셈. 이제 목숨을 건 추격전이 시작된다. 이 판에선 누구도 믿지 마라.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1시간 55분</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>청소년은 관람할 수 없는 영화</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABVPNGsRv_baoIhpbf9OIYFQNEoRzJu0ekFZtBel_Z7QYiBs601vgdHTlaN80iK4v8t-Pg4mV6kmY35i2MKOHuatVzDUndhK2kxvlzzk.png?r=985</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABY0GAn4jkueOJuoglRjI_WDYMPg_j7C-32eqiWxVn3pwsuvLYk95gn-hC2eTQSYfrsKsXGh2JGhqV34xh0hthzE7fUmjZUscQsoE0VE.png?r=f6b</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>스콧 스튜어트</t>
+          <t>최동훈</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>폴 베타니,칼 어번,캠 지간데이,매기 큐,릴리 콜린스,브래드 듀리프,스티븐 모이어,크리스토퍼 플러머,앨런 데일,메이천 에이믹</t>
+          <t>박신양,염정아,백윤식,천호진,이문식,박원상,김상호,김윤석,유선</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>코리 굿맨</t>
+          <t>최동훈</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>미국 영화,액션 &amp; 어드벤처,SF &amp; 판타지,액션·SF &amp; 판타지</t>
+          <t>한국 영화,액션 &amp; 어드벤처,액션·코미디,액션 &amp; 어드벤처·범죄</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>무서운</t>
+          <t>색다른 이야기,흥미진진</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABV8IPWOpOPwvXBmiqL6yD1ZW538lYX9_oABbGPx5IPVt61gzu2erxLrfU68e1yHpptdq8hEL1OIMktdeXPzfAbJqs8dheAzeEQ.jpg?r=d15</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABX7N2np9CF3amMAaYtF0HxBw7BnRMyNW0o1sEIC_dFTFHCA_dc5ZBj6Sbg8i-SNG80js6fCEzwL6CBYniYkO3OS4j2zV2scecA.jpg?r=c05</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>에이리언 VS. 프레데터</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+          <t>나의 마더</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>지구에서 멸종된 인류. 소녀에겐 자신을 키워준 로봇 ‘마더’가 전부였고, 마더 역시 ‘딸’인 소녀가 전부였다. 그들은 안전했다. 낯선 인간 여자가 나타나기 전까진.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1시간 53분</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABUFjlKwwyRq4JMlLNfPNFyEo6yN4CS3qI64KYxUu30v7_2qZWtajYbApny0LkBWh32Gh0hVzapt_GRSGU2TIaot4sJJQJLjUqpbvOhM.png?r=8f9</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABTfQhlyV00eQqsjAv_CfcJZKo3oSN_-GMBhfD-NU5Zy7dE1DD3LO-TTQbVssoH_ngKOzKqzK2s01MXoIfZdMLswhXsmXBktUWFzUCT4yKEDTeTyIjjrw_vZlx_o9EwGJnxq_U2Md6qBgXOc5rOhdyM2FKFR4WwzW2TLvpoYArR0.png?r=503</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>폴 앤더슨</t>
+          <t>그랜트 스푸토레</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>사나 레이선,라울 보바,랜스 헨릭슨,이완 브렘너,콜린 살몬,토미 플라나건,조지프 라이,아가트 드라불레,카르스텐 노르고르,샘 트라우턴</t>
+          <t>클라라 루고르,로즈 번,힐러리 스왱크,루크 호커</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>폴 앤더슨,댄 오배넌,로널드 슈셋</t>
+          <t>그랜트 스푸토레,마이클 로이드 그린</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>미국 영화,액션 &amp; 어드벤처,SF &amp; 판타지,SF 공포 영화</t>
+          <t>호주 영화,SF &amp; 판타지,사이버펑크,SF·스릴러</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>무서운,폭력</t>
+          <t>불길한 영화,서스펜스</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABepTa1pse4K58quCVsGtQtnkbuhLURQYscrqsS1eMZ58Gg02YAo3V6p98pZSxkB5D04JRTKwDcQi1Shdi6yMcfAAcRcI0mRMMQ.jpg?r=14a</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABQEWNY9acBuoyBjaG1GlhBfYfjQW8UdITSqUcw2NpPuDS9daVZZDxLaN-8dmUfj0jkuUgkKhQNi4yzt_51Ci4dzwxJ1pRdyRRA.jpg?r=f36</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>프레데터스</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+          <t>침묵</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>실패를 모르는 남자. 돈이 진심이라 믿는 남자. 그러나 젊은 약혼녀가 주검으로 발견되고 딸이 용의자로 몰리는 순간, 그가 알던 세상은 순식간에 사라졌다. 모든 걸 걸고 딸을 무죄로 만들어라. 그리하지 않으면 모든 걸 잃을 터이니.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2시간 5분</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABaJ7WwyasN17sQxZs_x4C5rxw6dQHthfeV4R7TiMoYUJHnjxaVq859pqf_fQ6yPg_w6C7SiFZMZU64iEy4q_5KGvjtwprSu4telb4w4.png?r=013</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABYID6lcWbdeElYJwbp4G89h-mYtkhnUmJ_l7zpzr20cVQ2a_nKFuz6LUbuEHExrwlvNdVaL0lla-yddDVaM5hiukuNh_sZAZLmwgIfg.png?r=75c</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>언털 님로드</t>
+          <t>정지우</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>에이드리언 브로디,토퍼 그레이스,앨리스 브라가,월튼 고긴스,알렉 타크타로브,로렌스 피시번,대니 트레조,루이 오자와 장젠,마허샬라 알리,케리 존스,데릭 미어스</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>앨릭스 릿백,마이클 핀치</t>
-        </is>
-      </c>
+          <t>최민식,박신혜,이하늬,이수경,류준열,박해준,조한철</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>미국 영화,액션 &amp; 어드벤처,SF &amp; 판타지,SF 공포 영화</t>
+          <t>한국 영화,미스터리,드라마 장르 영화,법정 영화·드라마 장르</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>무서운,폭력</t>
+          <t>어두운 분위기,서스펜스</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABYQF1ZOI3If_IDkUSBBdLVN8vAEEXECAUuORpOrE3abEbXIA9j1_1XqVEOVKgESa1qom_ywHejv_uBUOT5t9z-eQu8yXqRyDaQ.jpg?r=a03</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>인시디어스 3</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABW8_qV_Sd28ttKNcJ6c40dTz0oZ2RNJv4on4E8kigoO2n5m3iPsRZ8ZtBIqwzYmuvygPzeIqx3pIxA4pvzQ3O0bF_umZ5ldrmNkz2Sg.png?r=6d1</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>리 워넬</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>더모트 멀로니,스테퍼니 스콧,린 샤예,앵거스 샘슨,리 워넬,테이트 바니,마이클 리드 매케이,스티브 콜터,헤일리 키요코,코벳 턱</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>리 워넬</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>미국 영화,영화·호러,비명 유발·10대</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>등골 서늘,무서운</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABWeuZ6UXz8kepcR5hBIAZN7F3px1IIfQjadgmaCC6bCLVSuLCUnYBRRnwsYXle4EaDE2jWsdQNuYl0G0WbRnJUSPTU29t9QG0w.jpg?r=86c</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>위자</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABTIPP6fp3K6msYclU8UgKKG0PfcHA0qIbmsnaANMmvlPTTQ4Z_2eIIPRTLZjEUZqkduw02bqA-7ucu7FOjlNuag_ciIU_0fswkabjmA.png?r=271</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>스타일스 화이트</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>올리비아 쿡,아나 코토,대런 카가소프,비앙카 A. 샌토스,더글러스 스미스,셸리 헤니그,시에라 휴어먼,서니 메이 앨리슨,린 샤예,비비스 콜롬베티</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>미국 영화,영화·호러,영화·호러·초자연,비명 유발·10대</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>등골 서늘,서스펜스</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABRYLuZcHn-ntPiCekLKrpPWMpOyWZ0IexZgbpd554OWrr9PAMdKio3pSKVeq2aTc1E065CjGhvCdqamNV7JrjlqTSep-Bo0S6Q.jpg?r=74a</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>데이 오브 더 데드: 블러드라인</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABS5W3ThzQ5uEU3UCQyGy-IOK-Yr88dV2-GzYn4Rqp-UkxYhKEAr9EwXV0f8JGzTWEBiSMg_HHNPlUA1BBm6atbfvhc3lWUj5TkAYZaU.png?r=554</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>엑토르 에르난데스 비센스</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>조나단 스캐치,소피 스켈턴,마커스 뱅코,제프 검,릴리언 블랭큰십,울랴나 찬,섀리 왓슨,아타나스 스레브레프</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>마크 톤데라이,라스 제이컵슨</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>미국 영화,영화·호러,피투성이 호러 영화,인디 영화</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>폭력</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABc5ZRw_nZSp_vpnfVh3gDx8eIX2mfLBM0TOmCbGGU4hlyJHbauxNJuhvEnxlV4xgHOmPqHTyhi0xc58jSxvFN3jMgrUrYA3qhA.jpg?r=7f3</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>포제션 오브 한나 그레이스</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABQNfkGiZ2qSjxx7SP4-Pfz8psN_mImsMSaG1CkdSYZwucijzsJ2f8zoxdcnpyOVTi-Rj6KABbGfldVIzE0GF13-vGtBwY9fmim17Gf8.png?r=60e</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Diederik van Rooijen</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>셰이 미첼,그레이 데이먼,Kirby Johnson,닉 순,루이스 허섬,Stana Katic,맥시밀리언 맥나마라,Jacob Ming-Trent,제임스 A. 왓슨 주니어</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>브라이언 시브</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>미국 영화,영화·호러,피투성이 호러 영화,영화·호러·초자연</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>무서운</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABalAnaGiZKGiPsPBQXH5cEvKx866vxvaP-c7n5LmIw54bIdXZ5xztdmlpUdlY8yO3Xp97ougNM5uYydwINmtL_kHcizOoV7E_w.jpg?r=68d</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>데스티네이션 2</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABfc7sGm_ItV-dviAiiLgT7xy2zv1_hQCOInJFZs2ZenRIV0Z3tDuLCrsTxlo3rLsNkhQbhFR3_MkN-nayAp-69OP71-d8-ix0OpY5cc.png?r=80d</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>데이비드 R. 엘리스</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>알리 라터,A.J. 쿡,마이클 랜디스,테런스 'TC' 카슨,조너선 체리,키건 코너 트레이시,세라 카터,린다 보이드,데이비드 팻코,저스티나 마차도</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>J. 매키 그루버,에릭 브레스,제프리 레딕</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>미국 영화,영화·호러,피투성이 호러 영화,영화·호러·초자연</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>무서운,폭력</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABbRvUoHhss5tjQS5K07UGVce6RW_1vxz2Zzjq5G8uwCfO7A9RMvQIzF-n0ApKXwWH0W-tPNxLsG2VkBnAI63STQ5nj1Rbgd8lw.jpg?r=d83</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>토르: 천둥의 신</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABTSHCjQLqXSswGIVMukIBai3NNjfGJGZxEdRMA2Ga3oYzb5ppce1CgPtpOHfckl4HKqEY7b_8M093D5OFZk2eMKG0LP1_JItQZXDSRA.png?r=2cb</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>케네스 브래너</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>크리스 헴스워스,나탈리 포트먼,톰 히들스턴,안소니 홉킨스,스텔란 스카르스고르드,캣 데닝스,클라크 그레그,콜므 포어,이드리스 엘바,레이 스티븐슨,아사노 타다노부,조시 댈러스,제이미 알렉산더,르네 루소,스탠 리,루크 매시,숀-콜린 영,캐리 라자,줄리엣 로페즈,조지프 갯,할리 그레이엄,리처드 세트론,데일 고드볼도,힐러리 핑글,다코타 고요,맷 바탈리아,블레이크 실버,짐 파머,버디 소스탠드,아드리아나 바라자,조엘 매크레리,제이미 맥쉐인,아이작 캐피,대런 켄드릭</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>J. 마이클 스트라진스키,마크 프로토세비치,애슐리 에드워드 밀러,잭 스텐츠,돈 페인</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>미국 영화,액션 &amp; 어드벤처,액션 &amp; 어드벤처·블록버스터,코믹북&amp;슈퍼히어로 영화</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>흥미진진</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABUCtS0nS1ojSByfPzH_ND00OBg7eXfBrgZNhrWcU5Y3MBLkTwSXmkByjzMelNYFxJy6tZoKQQgBFyDwW28R5scFj21xFlCrngw.jpg?r=ff7</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>엑소시즘 오브 에밀리 로즈</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABRKlndMMHzGN8TEyZJppI7PNy3YGEfz4c-Shk1sTxpCFzb1rCICrYnDcBlS72EJ8tbx8d_39eGL-ZDFXFBP_urkpgVLa4iI0TGOb7wI.png?r=6a9</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>스콧 데릭슨</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>로라 리니,톰 윌킨슨,캠벨 스코트,제니퍼 카펜터,콜므 포어,조슈아 클로스,케네스 웰시,덩컨 프레이저,JR 보른,메리 베스 허트</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>폴 해리스 보드먼,스콧 데릭슨</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>미국 영화,영화·호러</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>어두운 분위기</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABQB-xiHEsq97PbY2w3Pf6XTLZ0JjzuWb4hpQ3ej0BYUBLaEfvXmxgXAUwMIJa1ceWP586wv3vLEkTcowT7SF7VMMFSnHbxQgIA.jpg?r=e20</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>레지던트 이블 5: 최후의 심판</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABRTRYK1UH0kEAHq2qkpMOgIojnqUwi8ogYq8xYR6EZruQWV2orGjlyCJbEBS0LS8ZiDAm2pdFn7kxthBtNA8PenY-7sBvWCYGd7rWTM.png?r=a23</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>폴 앤더슨</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>밀라 요보비치,시에나 길로리,미셸 로드리게즈,Aryana Engineer,리빙빙,보리스 코조,조핸 어브,Robin Kasyanov,케빈 두런드,Ofilio Portillo,오데드 페르,콜린 살몬</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>미국 영화,액션 &amp; 어드벤처,액션·스릴러,SF &amp; 판타지</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>폭력,흥미진진</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABd8L9QqfCT-H0vmeHclTTh4AAsuiHhdyyzIqjhLAQdR5q-qE0xK_VEFR-3e3KCtAw9tlwK5kokTqqypOVzKjeHW82qEtbFcjcQ.jpg?r=a90</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>캐리</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABXrVOMqOeSN7xmmCLUT4G1Aq3hGBKdAH1ZxqfH5wWaGwpe3tbrXnKzDjlrZUwdEOIxAZlN50JQoa1WwtPYA3Uwxl_lX6yaZ-DY2lYBM.png?r=50f</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>킴벌리 피어스</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>클로이 그레이스 모레츠,줄리안 무어,주디 그리어,포샤 더블데이,알렉스 러셀,가브리엘라 와일드,앤설 엘고트,배리 샤바가 헨리,서맨사 와인스타인,맥스 토플린</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>로런스 D. 코언,로베르토 아기레사카사</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>미국 영화,영화·도서 원작,영화·호러,피투성이 호러 영화</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>등골 서늘,폭력</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABacXgY09fnaSyec7sON-rNgZL4MFeYrkzz3YV7nBF9GzUUrEulAa-SfUYtgXbGCmH_GaTlTpRhXKJzyoOLmp0g5BOu83JUunGw.jpg?r=3b6</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>래버너스</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABaoimGOIWcWQbeDZMNEAo_AXF7pfejFt6DHKmo0BB0PoEvi9AJ69gsEm5GVSZzvtVarpMr11oHtPkzf0Ji2FrVYvOr6sJjSddX-3SDSZPhpanGnQGjsAfH6e04zVqMvtUoie1JqdN7l98HmsWXFeqzbSQfCYdcVTSBjcGcfN35E.png?r=455</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>로뱅 오베르</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>마크 앙드레 그롱당,모니아 초크리,샤를로트 생마르탱,브리지트 푸파르,마리-지네트 게,미슐린 랑크토,에두아르 트랑블레-그르니에,뤼크 프루,디디에 뤼시앵,로베르 브루예트,파트리크 이봉</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>캐나다 영화,영화·호러</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>불길한 영화,어두운 분위기</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABdNu1vIvKn3DHxUZ8TmSiYwjtAd8dvME_T_ttt7AtHxRGGIjNeXxDDL6jdPtFLlFGQzT0vIoXbVAfyr_YP44DqJ_VlzXsOzhyQ.jpg?r=8ca</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABe0qw732_0GeHFc1bykVeyFO8tbBasoRzpaqPFYZkMOYt1Zmxguy6CrA0ICxLPevmlcWdkqW09EahAiiGESTHla11MXP1W4uYQ.jpg?r=61e</t>
         </is>
       </c>
     </row>

--- a/movies1.xlsx
+++ b/movies1.xlsx
@@ -356,84 +356,84 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>프리스트</t>
+          <t>나는 악마를 사랑했다</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>흡혈귀 떼를 물리치는 전사가 된 신부. 신부로 분한 폴 베터니가 납치된 조카를 구출하기 위해 사활을 건 싸움을 시작한다.</t>
+          <t>다정하고 똑똑한 그가 잔혹한 연쇄 살인마라니! 테드 번디와 사랑에 빠진 싱글 맘 리즈는 그의 범죄 사실을 수년간 믿지 못한다. 악명 높은 범죄 실화를 바탕으로 한 영화.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1시간 27분</t>
+          <t>1시간 50분</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
+          <t>청소년은 관람할 수 없는 영화</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABVPNGsRv_baoIhpbf9OIYFQNEoRzJu0ekFZtBel_Z7QYiBs601vgdHTlaN80iK4v8t-Pg4mV6kmY35i2MKOHuatVzDUndhK2kxvlzzk.png?r=985</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABdm0zRt2Ht2uRe55sWJ3YdedjRo-gT5fT_-Y4o54WdyYuiBhdwqXC12CQ8dvs2BwPzhA2U4-_5oVTiP93bPxLYLNU-zlINlKRVc3TOZXtRabsQ3Jty9U1cCcsyL39fvHgOGHFFP-HxEx4T6rTJEpIT6auz33FaaAQYOO576Hdgw.png?r=43e</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>스콧 스튜어트</t>
+          <t>조 벌린저</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>폴 베타니,칼 어번,캠 지간데이,매기 큐,릴리 콜린스,브래드 듀리프,스티븐 모이어,크리스토퍼 플러머,앨런 데일,메이천 에이믹</t>
+          <t>잭 에프론,릴리 콜린스,카야 스코델라리오,제프리 도너번,앤절라 서라피언,짐 파슨스,존 말코비치,헤일리 조엘 오즈먼트,딜란 베이커,브라이언 게러티</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>코리 굿맨</t>
+          <t>마이클 워위</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>미국 영화,액션 &amp; 어드벤처,SF &amp; 판타지,액션·SF &amp; 판타지</t>
+          <t>영화·실화 바탕,전기 영화,미국 영화,드라마 장르 영화</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>무서운</t>
+          <t>불길한 영화,어두운 분위기</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABV8IPWOpOPwvXBmiqL6yD1ZW538lYX9_oABbGPx5IPVt61gzu2erxLrfU68e1yHpptdq8hEL1OIMktdeXPzfAbJqs8dheAzeEQ.jpg?r=d15</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABYT0jbuE5pN52ej9OKRN7gYZiFyjoi5-di_zVHXR8dG5qCmEZBWfwz3PBePIlEHGrdNk7G0vDkyH_2meZfOC415JL_QhPVpeQg.jpg?r=bf5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>레지던트 이블 5: 최후의 심판</t>
+          <t>비포미드나잇</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>모든 게 끝난 줄 알았다. 하지만 눈을 떠보니 세상은 끔찍한 돌연변이 천지. 엄브렐라 사의 치명적인 T-바이러스로 인해 사람들이 언데드 군단으로 변해 버린 상황. 멸종 위기에 처한 인류에게 남은 희망이 있다면, 그것은 앨리스뿐.</t>
+          <t>파리에서의 재회 후, 어엿한 가정을 꾸린 제시와 셀린. 두 딸을 기르며 행복한 삶을 살지만, 뭔가를 잃어버린 듯한 느낌을 지울 수 없다. 바래 버린 로맨스를 되찾기 위한 두 사람의 여행. 《비포 선라이즈》, 그 두 번째 이야기.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1시간 35분</t>
+          <t>1시간 48분</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -443,117 +443,117 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABRTRYK1UH0kEAHq2qkpMOgIojnqUwi8ogYq8xYR6EZruQWV2orGjlyCJbEBS0LS8ZiDAm2pdFn7kxthBtNA8PenY-7sBvWCYGd7rWTM.png?r=a23</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABVT0I6CMDe7rfwOqqvBqExzwU10puP7LWLDnMot_aZUjsTu5dfGIaWva4omQDekba_YCz0HPK4SNWxU3wGy4mtD2sD7q9Aie18CLoZM.png?r=aa4</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>폴 앤더슨</t>
+          <t>리처드 링클레이터</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>밀라 요보비치,시에나 길로리,미셸 로드리게즈,Aryana Engineer,리빙빙,보리스 코조,조핸 어브,Robin Kasyanov,케빈 두런드,Ofilio Portillo,오데드 페르,콜린 살몬</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>에단 호크,줄리 델피,샤뮤스 데이비 핏츠패트릭,제니퍼 프라이어,샬럿 프라이어,크세니아 칼로예로풀루,월터 라살리,아리안 라베드,야니스 파파도풀로스,아티나 라힐 창가리,파노스 코로니스</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>리처드 링클레이터,줄리 델피,에단 호크</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>미국 영화,액션 &amp; 어드벤처,액션·스릴러,SF &amp; 판타지</t>
+          <t>미국 영화,드라마 장르 영화,드라마 장르 영화·로맨스,영화·로맨스</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>폭력,흥미진진</t>
+          <t>로맨스</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABd8L9QqfCT-H0vmeHclTTh4AAsuiHhdyyzIqjhLAQdR5q-qE0xK_VEFR-3e3KCtAw9tlwK5kokTqqypOVzKjeHW82qEtbFcjcQ.jpg?r=a90</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABZ2paG6b8Cz9INGHJeOlme--pjwGVUSNYQUxUdG9HdLJNeDovHxPqSBf_3SYxCpfcoh-d7ry6NymZHzBBD6tkkzZmv3jxBJcgQ.jpg?r=539</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>무서운 영화4</t>
+          <t>산호초를 따라서</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>폭소의 도가니 《무서운 영화》가 네 번째 이야기로 돌아왔다! 코미디 황금 명맥을 이어 온 패러디 영화의 진수. 《밀리언 달러 베이비》 《쏘우》 《브로크백 마운틴》까지, 주옥같은 영화의 명장면을 한데 모았다. 배꼽 붙들어 매시길.</t>
+          <t>죽어가는 산호초를 기록하는 사람들. 전 세계의 다이버와 과학자, 포토그래퍼들이 모여 거대한 수중 캠페인을 만들어간다. 생명의 바다를 지키기 위해.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1시간 23분</t>
+          <t>1시간 29분</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
+          <t>만 12세 이상의 자가 관람할 수 있는 영화</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABYkHBOURChm1ZcloE34OEpOMWn2h8715bba4V9PDrs2Lq0akxccwgRZXk5wRyWOXpI_JEPaiobH0h61wlImwvdDvEVstvW7Ca3a084w.png?r=c58</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABQc8k7srNoyW2WqnLh6y3RdW1q2iQFEjljYwbwIN95FqvArdTx7UyfuLE12q6B4571GyNJ0d-GrsLtb_r3CQ6DfrFxKO9Hngxu1WEcbHh_TIzkNYSYTGss7Vc_yPcZTwlg7jOMDh2SpIZQ097TSJvQD1KGQLcJ8c1XfcboqpSDU.png?r=059</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>데이비드 주커</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>안나 페리스,레지나 홀,크레이그 비에코,빌 풀먼,앤서니 앤더슨,레슬리 닐슨,몰리 샤논,마이클 마센,크리스 엘리엇,카르멘 일렉트라,크리스 엘리엇,샤킬 오닐</t>
-        </is>
-      </c>
+          <t>제프 올로프스키</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>크레이그 메이진,짐 아브라함,팻 프로프트</t>
+          <t>데이비스 쿰,비키 커티스,제프 올로프스키</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>미국 영화,영화·호러,공포 코미디 영화,코미디</t>
+          <t>미국 영화,다큐멘터리,과학&amp;자연 다큐멘터리</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>선정적,푼수 캐릭터</t>
+          <t>논쟁을 부르는</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABaZ5LnJHsWfaqDtadYdMMCklcO-89WwwS-C_TNDMsXQeEmxGAk8tGuFmf6_jzK8_NmTR978pdMn5EoT71iavVURBY48mXVkktQ.jpg?r=a7e</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABQ8Ej8eI55aAjxTz7iG1CJ18Zdm4KCysWLlSJScXLtxB75-CTXaeGy3lhGPlmeen9i8HuI5ir-bYIzBjyAc7pd8Du0AVHYG1og.jpg?r=8a5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>인시디어스 3</t>
+          <t>우산 혁명: 소년 vs. 제국</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>죽은 엄마와 얘기하고 싶어 영매 엘리스를 찾아간 소녀 퀸. 그날 이후, 퀸에게 이상한 일들이 일어나기 시작한다. 환영인지 실재인지 모를 남자의 출몰, 알 수 없는 말을 건네는 이웃 할머니. 퀸을 위협하는 존재의 실체는 과연 무엇인가.</t>
+          <t>10대 학생운동가 조슈아 웡이 이끄는 홍콩의 젊은 시민들. 성난 그들이 거리로 나섰다. 오직 조국 홍콩의 자치를 수호하기 위해.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1시간 37분</t>
+          <t>1시간 18분</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -563,601 +563,557 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABW8_qV_Sd28ttKNcJ6c40dTz0oZ2RNJv4on4E8kigoO2n5m3iPsRZ8ZtBIqwzYmuvygPzeIqx3pIxA4pvzQ3O0bF_umZ5ldrmNkz2Sg.png?r=6d1</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABc6xPhYkutDryEdQ-IlItXJ8KA5WyWp31KJXUB-JyjmhXbRhVZBO86E0l9ZbDbJdvS95ToGy2xg85lqJXpoiKlLdldXCmUfMTzWxJ07tmZhfiJgxdKaIqyg6CFCDu01bDdCeo6_VhY7hmnDSVdBrB4wdUpfzYt2UXt_ryjf6zY4.png?r=72c</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>리 워넬</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>더모트 멀로니,스테퍼니 스콧,린 샤예,앵거스 샘슨,리 워넬,테이트 바니,마이클 리드 매케이,스티브 콜터,헤일리 키요코,코벳 턱</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>리 워넬</t>
-        </is>
-      </c>
+          <t>조 피스카텔라</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>미국 영화,영화·호러,비명 유발·10대</t>
+          <t>전기 영화,미국 영화,십대 영화,다큐멘터리</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>등골 서늘,무서운</t>
+          <t>감동</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABWeuZ6UXz8kepcR5hBIAZN7F3px1IIfQjadgmaCC6bCLVSuLCUnYBRRnwsYXle4EaDE2jWsdQNuYl0G0WbRnJUSPTU29t9QG0w.jpg?r=86c</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABer-NIWUJs5I-g9Io9m9WYfL-pV9pGW1UAtbHjeX00IJ9lBpEmYic2EG34N9hEQlFfHErNcQGuMmnKZlD1tBQIICS8q_cKWMRg.jpg?r=0f5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>직쏘</t>
+          <t>길버트 그레이프</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>잔혹하게 살해당한 시신이 차례로 발견됐다. 10년 전 세상을 뒤흔들었던 직쏘 킬러를 모방한 사건이라 여겼다. 하지만 희생자 부검 결과 이미 죽은 직쏘의 혈흔이 발견되는데! 그렇게, 게임이 다시 시작됐다.</t>
+          <t>몇 년째 가장 역할을 떠맡아 온 길버트. 지적장애 동생 등 돌봐야 할 가족 때문에 어깨가 무겁다. 어느 날, 출구 없는 삶에 한 여자가 나타나는데. 인생의 희망도 찾아오려나.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1시간 31분</t>
+          <t>1시간 57분</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>청소년은 관람할 수 없는 영화</t>
+          <t>만 12세 이상의 자가 관람할 수 있는 영화</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABehsP1MePrV0tht3iMCEOGodGbPc8cNbX7Vxpfvj9aSAxu_jP3cxBqLeKlqy0rpRTlm8b_rrEvFoRVH4uSJeNIsu9NL-HMPIB2Gqu3k.png?r=d2f</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABco-VarQhubfq4aYQ3H8jYkRw9EeV6TH4mCCSHZm-018WMlWPbA6ZAwFFvG59k6JyxOWEbaAcIi3pnuNeJxSj9EU5m9eRZBmxmjDrBg.png?r=2e8</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>스피리그 형제</t>
+          <t>라세 할스트롬</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>맷 패스모어,토빈 벨,칼럼 키스 레니,해나 에밀리 앤더슨,클레 베넷,로라 밴더보트,폴 브론스틴,만델라 밴 피블스,브리트니 앨런,조사이아 블랙</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>조시 스톨버그,피트 골드핑거</t>
-        </is>
-      </c>
+          <t>조니 뎁,레오나르도 디카프리오,줄리엣 루이스,메리 스틴버겐,달린 케이츠,로라 해링턴,메리 케이트 셸하트,케빈 타이,존 C. 라일리,크리스핀 글로버</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>미국 영화,영화·호러,피투성이 호러 영화,영화·슬래셔 &amp; 연쇄살인범</t>
+          <t>미국 영화,영화·도서 원작,드라마 장르 영화,드라마 장르 영화·로맨스</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>무서운,폭력</t>
+          <t>색다른 이야기,가슴 뭉클</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABapEP48FAagJjYZPiErcELfXN5J09GSzd89YernWsCn8QIam-gGCTlaxYkfOqXnayrLXQdsfIEPCGGUvoU3f0BJ_dt3jo380UA.jpg?r=059</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABQheMiPwyOdivZdnz2Qtb8RxTXmADzldm-zJC8ARi9kWNASAo63-he2g8yDwqNw6M7mi3NJU3ws9o8gGTO-4v28SgdsJ-NMg2w.jpg?r=f44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>제인 도</t>
+          <t>나우이즈굿</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>가업으로 부검 일을 함께하는 아버지와 아들. 어느 날 밤, 신원 미상의 여자 시체 한 구를 맡게 되는데. 시체에서 발견되는 끔찍한 흔적, 그 설명할 수 없는 사인은 무엇인가.</t>
+          <t>암과의 싸움에서 패색이 완연해졌음을 알고 있는 10대 소녀는 남은 일생을 마음껏 즐기기로 결심하고 격정적인 연애까지 시작한다.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1시간 26분</t>
+          <t>1시간 42분</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>청소년은 관람할 수 없는 영화</t>
+          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABa9hsOxm2kiNlOAWDiRLAkOYb8x395BhMlL7bv9Zz-6KL10riMj4rci-uFd_3pICvLts3Kx223ebz71K1dIDSut1V76gDw5hCgGrR80.png?r=e98</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABVJ8KQtejVrODVuGLNeuIWWUYjHdL27ghQe1Ws38ymC4e5tk0MrIXfzJToboqWqdH_XsOi7be5qj3w0LJnVoOKy69zjaTrAJOdpNexo.png?r=f62</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>안드레 외브레달</t>
+          <t>올 파커</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>에밀 허시,브라이언 콕스,오펠리아 로비본드,마이클 맥엘하튼,파커 소여스,제인 페리,올웬 캐서린 켈리</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>이언 골드버그,리처드 나잉</t>
-        </is>
-      </c>
+          <t>다코타 패닝,제러미 어바인,패디 콘시딘,올리비아 윌리암스,카야 스코델라리오,에드가 캐넘,조 콜,줄리아 포드,줄리언 워덤,조세프 알틴</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>미국 영화,미스터리,영화·호러,피투성이 호러 영화</t>
+          <t>십대 영화,십대 로맨스,영화·도서 원작,영국 영화</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>불길한 영화,무서운</t>
+          <t>가슴 뭉클,감정 풍부</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABeni972qYGnAQfz_bCszDMmddGgP1H0ODiJ5udFo8LvC_EUgQCDf1toWxcFrR_NsuuHIoLH9g7HRV8F0njUEYFZJPVK9p1DEZA.jpg?r=bed</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABbVjnCDe0sUvYS63yHGhziq94XqayIw_Jvh7tYfbCSZLq2lgdOJgTTM1jiP7mKgsWJ-1OuY35YBA0oegHaYj082fLJqbzeLd1g.jpg?r=2e3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>슬렌더 맨</t>
+          <t>6년의 사랑</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>친구가 사라졌다! 인터넷 괴담 속 존재 슬렌더맨을 소환하는 의식을 치른 뒤 일어난 일. 그리고 실종된 친구를 찾기 위해 또다시 그를 부르고 말았으니. 절대로 눈을 떠선 안 돼! 눈을 마주치면 미치거나 끔찍한 죽음을 맞게 될 테니.</t>
+          <t>6년을 함께 한 열정적인 커플에게 대학 졸업을 앞두고 예상치 못한 취업 기회가 생기면서 이들의 미래는 불투명해지기 시작한다.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1시간 33분</t>
+          <t>1시간 19분</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
+          <t>청소년은 관람할 수 없는 영화</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABe5eaazSYRimea-UIj75h8T3BfhPi2ymuTxvs6BRC4ke9HABfnHLepqmETAbVD2FGExxFgNjK6Ye1RRHLs0zV1d2hIQIb3W6RLz3haw.png?r=eb8</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABTwEe1utLKpVB8SooZu762h-_4xE8VzTabheRvcLCyLi7UDZs3BTcTjiG_cGhkAWOgf-QD29ZcBWiW15t_32tm2Yy9heGOvdFp6JpOw.png?r=170</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>실뱅 화이트</t>
+          <t>한나 피델</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>조이 킹,줄리아 골다니 텔레스,재즈 싱클레어,애너리즈 바쏘,앨릭스 피츠앨런,테일러 리처드슨,하비에르 보테트,제시카 블랭크,마이클 라일리 버크,케빈 채프먼</t>
+          <t>타이사 파미가,벤 로젠필드,린지 버지,조슈아 레오나드,제니퍼 라플러,피터 백,다나 휠러 니콜슨,제이슨 뉴먼,몰리 맥마이클</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>데이비드 버크</t>
+          <t>한나 피델</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>미국 영화,영화·호러,영화·호러·초자연,비명 유발·10대</t>
+          <t>미국 영화,드라마 장르 영화,드라마 장르 영화·로맨스,드라마 장르 영화·관능적</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>등골 서늘,무서운</t>
+          <t>관능적,감정 풍부</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABUTbv2TBnLkNScM6as41VeOdQIBC1EYZXZYwN3XjmhEsAjqOFMhrQ_YoOHJbvIjBy6SHeHUjFvVGY4ftn0Xiq0SodYd2D8ooYQ.jpg?r=544</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABcHcD2eQNU5o30T6zH63YW0-d5aF4lGU8-0aqhHdzOelP7CDg0mhcp42oZdWxG0NF2fJ7PonXACS_3IgxC2Fe85A5wtA4JUXQw.jpg?r=c99</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>웜바디스</t>
+          <t>디스커버리</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>젊은 남자의 뇌를 먹고 그 안의 기억을 흡수하게 된 신생 좀비가 그 남자의 여자친구와 사랑에 빠진다.</t>
+          <t>하버 박사가 사후세계의 존재를 증명한 '디스커버리' 후 자살이 폭증한다. 박사는 위험한 실험에 매달리고, 그를 불신하는 아들 윌은 위기의 여인 아일라와 가까워진다.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1시간 37분</t>
+          <t>1시간 42분</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
+          <t>청소년은 관람할 수 없는 영화</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABeET1yHYPGFvitGkiPtwld8rNp355QpAtkvtinV6pqNY_g89RSldGc14nVicfTizB27zIwDX08C7SbWHG2Kcis4E1LQy_ZSTyBs5rWQ.png?r=48a</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABUknS39uA7jBr-pyVLyrlnPoKtkXDwnfQjpLy-JSrx3me7cDLi9CcRkMOMD4J2SiPxJLoB_lz5PorUdzL0UJqxRkBlQEmTbcLj0_vFb8nhPDnDSJ6xSLGhmz5-E_zXs4GbmsTuHC5HbQrkwGIVJCkrNVyuQ7XRuuo3QNlDir1Uc.png?r=97d</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>조너선 러빈</t>
+          <t>찰리 맥다월</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>니컬러스 홀트,테레사 팔머,애널리 팁튼,롭 코드리,데이브 프랭코,존 말코비치,코리 하드릭트,대니얼 린드레스케이,뱅상 르클레르크,클리퍼드 러듀크베일런코트</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>제이슨 시걸,루니 마라,로버트 레드퍼드,라일리 키오,제시 플리먼스,론 캐나다</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>찰리 맥다월,저스틴 레이더</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>미국 영화,영화·도서 원작,영화·호러,공포 코미디 영화</t>
+          <t>미국 영화,SF &amp; 판타지,SF 영화·드라마 장르,미스터리</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>무서운,로맨스</t>
+          <t>현실 붕괴,잔잔한 분위기</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABfLvspMQtNe6AAUi6xufy2J8hafX-zYAk0uVPEXwFV_yKnGKJtwlpmjkTGd36vcFF8h7qOcm6rDMdE1_y-8-SfD-8yXr1OJ66w.jpg?r=902</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABa3gJ7KzqdTiKpL5MteOrm7s7O0FhI5htNLgqmEskZi3reTevX7j87FLqM-YQmLYFSHJfNJF4uQ6ycouxZcmM4H16_pGYqt_tw.jpg?r=2be</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>파이널 데스티네이션 5</t>
+          <t>오직 사랑하는 이들만이 살아남는다</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>끔찍한 다리 붕괴 사고에서 가까스로 목숨을 건진 사람들. 생존의 기쁨도 잠시, 다시 죽음의 그림자가 드리운다. 사신과의 싸움을 시작한 그들. 달라진 죽음의 규칙을 발견해 잔혹한 운명을 바꿀 수 있을는지. 당신, 아직도 살아있는가?</t>
+          <t>지구 반대편에 사는 뱀파이어 부부. 몸은 떨어져 있어도 마음만은 함께다. 남편의 우울한 목소리에 아내가 달려오면서 둘은 재회하지만 기쁨도 잠시, 철없는 처제의 등장으로 곤경에 빠지고 만다. 고이 잠재워둔 뱀파이어 본능까지 눈을 뜨고.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1시간 31분</t>
+          <t>2시간 3분</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>청소년은 관람할 수 없는 영화</t>
+          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABR3-UfHWT9bfciEGijC3xsw4orvarbM5ey74aXLDRmwYn2O-zgmsS8HpqBs5TxOcSW_f3kF3a_AZiDeCFbUdZpFI7t-pQisak-AJOTA.png?r=931</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABbzJPi1hGY-3uEJtQ6Zs8jO57HNBG6FYJlquP9ZyLYD3jASAM0R-wcBRuHdWg10bUguH2bo_u64Z0mRKkIOrzILlHQ4ldmT0HirQIg8.png?r=bf0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>스티븐 퀘일</t>
+          <t>짐 자무시</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>니콜라스 디아고스토,엠마 벨,마일스 피셔,엘런 로,재클린 매키니스 우드,P.J. 번,아를렝 이스카르페타,데이비드 코에너,코트니 B. 밴스,토니 토드</t>
+          <t>틸다 스윈튼,톰 히들스턴,미아 와시코우스카,존 허트,안톤 옐친,제프리 라이트,슬리만 다지</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>에릭 하이저러</t>
+          <t>짐 자무시</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>미국 영화,영화·호러,피투성이 호러 영화,영화·호러·초자연</t>
+          <t>영국 영화,드라마 장르 영화,드라마 장르 영화·로맨스,영화·로맨스</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>무서운,폭력</t>
+          <t>등골 서늘,색다른 이야기</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABbqPXNSjI1U8tZIfZJ-tiM3AitY7UBrZfHMj8oGeBmPpoTxe-loumFg7GW3WLQ-ZW3aMv_qxk29lWKIcbwO7FauoEmQHOk1TSA.jpg?r=639</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABSbEMNrusMOYdEer4y_BP-liLaMbFR3hy95ainwphkm6ydgv8kF2d45sB0YzvyoYClMnWtvBVJbAe-9ub0e9h5TNAc3YPQk9pQ.jpg?r=6e9</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>위자</t>
+          <t>로마 위드 러브</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>단짝 친구의 갑작스러운 죽음. 남은 친구들은 아직 그녀를 보낼 마음의 준비가 되지 않았는데. 결국 다 같이 모여 낡은 보드게임을 꺼낸다. 그리곤 죽은 그녀와 대화를 시도하는데. 하지만 그들이 불러낸 것은, 저세상에서 온 악몽.</t>
+          <t>우디 앨런이 감독한 이 오락 영화는 로맨스와 부정, 오페라, 유명인사의 변덕을 주제로 한 4개의 이야기로 구성된다.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1시간 29분</t>
+          <t>1시간 51분</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
+          <t>청소년은 관람할 수 없는 영화</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABTIPP6fp3K6msYclU8UgKKG0PfcHA0qIbmsnaANMmvlPTTQ4Z_2eIIPRTLZjEUZqkduw02bqA-7ucu7FOjlNuag_ciIU_0fswkabjmA.png?r=271</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABSNINBwNqEult8Zx5PlTEMqO3IIZIZg7uFVsLhfjSHeoUeatz0k2R3-sb5SGrCOArXxxyohWOdt3MKaOyoAzxYxKPN4veUfvcaoyU2I.png?r=ca9</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>스타일스 화이트</t>
+          <t>우디 앨런</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>올리비아 쿡,아나 코토,대런 카가소프,비앙카 A. 샌토스,더글러스 스미스,셸리 헤니그,시에라 휴어먼,서니 메이 앨리슨,린 샤예,비비스 콜롬베티</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>우디 앨런,알렉 볼드윈,로베르토 베니니,페넬로페 크루즈,주디 데이비스,제시 아이젠버그,그레타 거윅,엘런 페이지,알레산드로 티베리,알레산드라 마스트로나르디,파비오 아르밀리아토,알리슨 필,플라비오 파렌티</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>우디 앨런</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>미국 영화,영화·호러,영화·호러·초자연,비명 유발·10대</t>
+          <t>미국 영화,영화·로맨스,로맨틱 코미디,코미디</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>등골 서늘,서스펜스</t>
+          <t>위트,로맨스</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABRYLuZcHn-ntPiCekLKrpPWMpOyWZ0IexZgbpd554OWrr9PAMdKio3pSKVeq2aTc1E065CjGhvCdqamNV7JrjlqTSep-Bo0S6Q.jpg?r=74a</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABVDKOUoLxkdWsWcnXqr5zQefjA2hq8KK4qjP7BmNd_CaeZ0OkTYahr6gQjrzCmt-MUoHcNArpfNTUPv5AZsTQWuQhIXP3C6PmA.jpg?r=c04</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>언프렌디드: 친구삭제</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>별생각 없이 인터넷에 올린 영상. 장난삼아 저지른 괴롭힘은 친구의 자살이라는 비극을 낳고, 그로부터 1년 후 온라인에서 잔혹한 복수극이 시작되는데. 누구도 안전할 수 없다. 정체를 알 수 없는 추격자의 손에서.</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1시간 22분</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
-        </is>
-      </c>
+          <t>만킬로미터</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABaBkH24h7hscrtc4C70TQJq-pLMEBJZ48T3HuJ42Qr0aSF6STnxnWLcmflY2kwFjrDzLXutT3gtltW7xAAQTFOdWpupqcuR54p6fVGk.png?r=1f6</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABbvA1nQiNNxFgBbGuV3jC9lZbB2P8S_7AYXoDew7fXW4mTSwGsX67iSH47CHOFvqCONrT2IbEFsNqdGx-mXIPEvvlgM8WqgL1waBa_A.png?r=d2f</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>레반 가브리아제</t>
+          <t>카를로스 마르케스메르세트</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>셸리 헤니그,모지스 스톰,르네 올스테드,윌 펠츠,제이컵 와이소키,코트니 핼버슨,헤더 소서먼,매슈 보러,미키 리버,캘 반스</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>넬슨 그리브스</t>
-        </is>
-      </c>
+          <t>내털리 테나,데이비드 베르다게르</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>미국 영화,영화·호러,영화·호러·초자연,비명 유발·10대</t>
+          <t>스페인 영화,드라마 장르 영화,드라마 장르 영화·로맨스,드라마 장르 영화·관능적</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>무서운,어두운 분위기</t>
+          <t>관능적</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABdmCWy2bqbGUMgsFx8s_hcfDrTLT9ewmm2Ts-KV_qDYvqoBPlPw9gniSv0KfEQrYTSYWJHYyBt3gs7jr99AbjxahzOYmLS9Rvw.jpg?r=b18</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABbDkw6Q4cMiNL1eMDQGCCd9zmR131w9_2dLgyOnXCIpR9aXG4OpOITm3jNAL_2pxUHcfVhXxcTT2iJjXulxQ9LkNpufWp7p0dg.jpg?r=092</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>샤이닝</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>잭 토런스는 비수기의 적막하고 으스스한 호텔에서 생활하며 서서히 광기에 빠져들게 되고, 부인과 어린 아들을 공포에 빠뜨린다.</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1시간 59분</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>청소년은 관람할 수 없는 영화</t>
-        </is>
-      </c>
+          <t>미스 리틀 선샤인</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABS6fDH2WJT0MPbnbNUpx51MEReOTsA3yRL5KOf8h9BCeqFPlkSyVbjpA5o9Wl8DT2e2WOuNn8OaSPw3ci5MSKY53wnGMKHpvVado-rw.png?r=6a1</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABRTWkQW0EceEHqfAPy6BZp1ijBGNKsB9G0iKaO3WWtufJpE_dxCjzqlIZD49dNRS-W9OQ8k8wkfcG918uskLl1Utb0c9CB9b6-xFPus.png?r=3f4</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>스탠리 큐브릭</t>
+          <t>조너선 데이턴,밸러리 패리스</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>잭 니콜슨,셜리 듀발,대니 로이드,스캣맨 크로더스,베리 넬슨,필립 스톤,조 터켈,앤 잭슨,토니 버톤,리아 벨덤</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>스탠리 큐브릭,다이앤 존슨</t>
-        </is>
-      </c>
+          <t>그레그 키니어,스티브 커렐,토니 콜렛,폴 다노,아비게일 브레스린,앨런 아킨,브라이언 크랜스톤,딘 노리스,월리스 랭엄,베스 그랜트</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>미국 영화,영화·도서 원작,스릴러,스릴러·초자연</t>
+          <t>미국 영화,코미디,블랙 코미디,인디 영화</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>무서운,서스펜스</t>
+          <t>엉뚱하고 기발</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABVCcKSMEUdpfRDYkGMhXZfOdcc7vvAip7VzccfXKVciSfYp2LJGrgX8kb6q2kSaIpZcyyWDXHhNNLaP1hUaboeZU-i7rVT8W_Q.jpg?r=210</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABSAIGok7DIRJAKiZkpuwXQRVPioLgDpyTSCkYCiVq8rWkMETWGa46IGZwsibAHwOaKCsxba0dO7X5fuKX3mESJ_jdRJSmSGIQw.jpg?r=516</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>귀신온천여관</t>
+          <t>FYRE: 꿈의 축제에서 악몽의 사기극으로</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>고향 가는 전학생한테 따라붙은 왕따 학생 둘. 가족이 온천 여관을 한다기에 잔뜩 기대했더니, 무슨 여관이 귀신의 집 뺨칠 만큼 으스스하다. 식구들은 더 으스스하다. 때리는 애들 무서워서 도망 왔더니, 뭐야 여기가 훨씬 무섭잖아!</t>
+          <t>지상 최고의 음악 축제가 열린다! 기발하고 화려한 홍보로 기대를 모았던 파이어 페스티벌. 하지만 그림 같은 해변의 빌라도, 근사한 파티도, 모두 거짓에 불과했다.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1시간 48분</t>
+          <t>1시간 37분</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>만 12세 이상의 자가 관람할 수 있는 영화</t>
+          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABfH_jvWz0OLU8jIhY_t8JAhWauUyD2Uo5H5u2uyy1co7bMcbdCWmnhsuz4l9vWOOHdFfzMiTOgUd4d22R9jwtyl7m85LLTEGYQk6bX0.png?r=248</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>장팅후,훙옌샹,린허쉬안,곽서요,나가영,주미미</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABQs9MOJRmjbhDw-T155YoclFYPww3TqDrZYWKfTMwVc6fqyKws2RUZzFmbGjcy47fvU0hNVgNIbCQDBFwCJ0dOPyj6hNLCnu6X8s_4FBsRVhifbUr2nEpz-2cBghuv_FFQDhbG56Y1ndAS3i_x5vzY7zqeWiuMiWS8kfhlgzkZE.png?r=b34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>크리스 스미스</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>크리스 스미스</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>십대 영화,대만 영화,중국 영화,영화·호러</t>
+          <t>미국 영화,다큐멘터리</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>푼수 캐릭터,서스펜스</t>
+          <t>도발</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABTUWY9lFt_oAjl27EBfMWszNTUGzJenMTWXuH5EzLUSKxh8l-8X1UShZ4T4FpEyouP3ZLP6GY9dwVu-6jhdklqVGwYOWE4ElXw.jpg?r=5aa</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABRT3-s9LxDCJM2YqeucMopkPbpQ-OS3_A8cbgx14W22Va_W-Oa7jLYP7NKJKr6gy3U0Kesgk_lharx5XelxQ7821-ZO8z3WyCA.jpg?r=0f3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>퍼펙션</t>
+          <t>대학살: 나치 강제수용소</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>천재 첼리스트였던 샬럿. 10년 만에 돌아오니 신예 연주가가 정상에 올라 있다. 새로운 스타를 향한 그녀의 감정은 질투일까, 음악적 갈구일까. 그게 무엇이든 서막에 불과할 뿐. 지축을 뒤흔들 샬럿의 도발이 시작된다.</t>
+          <t>해방 후 나치 강제수용소의 참상을 보여주는 충격적 영상. 아이젠하워 장군의 명령으로 부헨발트, 오어드루프 등지를 둘러보는 나치의 모습도 담았다.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1시간 30분</t>
+          <t>58분</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1167,54 +1123,46 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABfIdd2V39by2aadxBtxb67BshxNlRv1K8OWtwEzw3On8CkmH_RNw084j3uY0-M1G8odz6XdOzqGTeiNmad9y0BRSFXLfEDGhZJAJpe5Sxls6jVAr_x7eY1wCEWYqKj4Kl2mUGr-XbrXXUWE0mcTsBkMbWLfS7VTGuX2oTyWMgu4.png?r=281</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABQRhAADHEboj8ReNU2FVeL3NL9x-kTGOIKrZIgh0JULbfd8cgyo8LenysIe-mPtIvEotFx4It5y-doQyXarteRaRWGgODE6eGgNZVbY.png?r=bed</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>리처드 쉐퍼드</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>앨리슨 윌리엄스,로건 브라우닝,스티븐 웨버,엘레이나 허프먼,마크 캔드보그,그램 더피</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>리처드 쉐퍼드,에릭 C. 차멜로,니콜 스나이더</t>
-        </is>
-      </c>
+          <t>조지 스티븐스</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>LGBTQ 영화,미국 영화,스릴러,심리 스릴러</t>
+          <t>미국 영화,다큐멘터리,역사 다큐멘터리,고전 영화</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>서스펜스</t>
+          <t>도발</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABTctcDOxydqZxgTvRPF0gEln8YaiP45fnjueEgkBHzQxogq1EdBXW1Pa96JbOWmCfaGJE7kJLBXarv8aUDqRobJ-UA19iD3beQ.jpg?r=c7e</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABWyEHZlaphrxA5fhbswuc1Z_IRwjont1MXpo8zYeZw2uZtAN53fY5dnqy0KjGSOpJi8EIX-FIoVK_HzyqpaoytkDdJuuONrZsg.jpg?r=c96</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>마더!</t>
+          <t>제로 베팅 게임</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>한 시인과 그의 아내가 살고 있는 조용한 외딴집. 어느 날 초대받지 않은 낯선 사람들이 들이닥치며 집의 평화는 깨지고 만다. 심지어 무례하고 거침없는 사람들. 손님들은 점차 광기를 드러내고, 집 안에선 이상한 일들이 이어진다.</t>
+          <t>다단계 판매로 비난을 받는 세계적 건강식품회사 허벌라이프의 복잡한 세계를 심층 취재한 다큐멘터리.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2시간 1분</t>
+          <t>1시간 44분</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1224,54 +1172,50 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>청소년은 관람할 수 없는 영화</t>
+          <t>만 12세 이상의 자가 관람할 수 있는 영화</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABRxRcCpcxG6STMApwxZ227RWBpQGrleCUCJ6Zh3gN4V-P6Vsswj8j1P9iz4ozgG0n91jhoDBj-0cg7HgwsL85KA2TQxwQlqdwWaXc8E.png?r=337</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABQshU9j-dqr_mAUWm9wcArpvntfJl43tRqsF060i7KMIifG9Xvw0WT1Nntrw0kla56HV-QkmLcVBJVDgF4v_x4tY493mXiEBOjSSBeY.png?r=b84</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>대런 아로노프스키</t>
+          <t>테드 브라운</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>제니퍼 로런스,하비에르 바르뎀,에드 해리스,미셸 파이퍼,브라이언 글리슨,돔놀 글리슨,크리스틴 위그,스티븐 맥허티</t>
+          <t>윌리엄 액크먼</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>대런 아로노프스키</t>
+          <t>테드 브라운</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>미국 영화,영화·호러</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>무서운,어두운 분위기</t>
-        </is>
-      </c>
+          <t>미국 영화,다큐멘터리</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABQWhdYyKjVrE7qHoBj9Cvw0MekpHWE3281YGeIU6z8O1aDVmLJYvFQgiyc8-7sm2nzCwAaaapmVZt3tVKXWXIKtHZkityYySuA.jpg?r=29d</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABZ5ZWaiYAsHhRlwd6Pyj9HGBGGFUZESEEkzRohYWPrv98mFQREShLGYN9cDruqEf7nUd07o6nQyuBJ48Yu6Uv1-Bkv9SwZdvTg.jpg?r=dea</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>비밀스러운 초대</t>
+          <t>휘트니 휴스턴: 그냥 나로 살고자</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>한 남자가 자신의 전 부인이 여는 디너 파티에 초대받아 참석한다. 파티는 해묵은 상처가 드러나고 새로운 긴장 관계가 조성되는 불안한 자리가 되고만다.</t>
+          <t>팝 역사의 한 페이지를 장식한 가수 휘트니 휴스턴. 가수 데뷔부터 약물 중독과의 사투, 그리고 충격적인 죽음까지 원조 디바가 남기고 간 삶의 자취를 따라가 본다.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1281,64 +1225,56 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>청소년은 관람할 수 없는 영화</t>
+          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABa112Gfoc88DOVrf0xhVcZEkWIm9wi5kP5HQgfd6pR7hm3jiqXwVwI386IkbIU8vAqJz43gmOmuYNjUXIKvDqeno30-Bbx1s_UtcKrc.png?r=c3f</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABR8Xgmsvyj_FKpVE5B5SbIXiP0ytGc-NSunnHCSNPBYUtwjj31brWpCBeAsTa3TuXl9p9Q6JwznO9ywv25rzkiwCfsy893hpPXEo8uI.png?r=3ef</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>캐린 쿠사마</t>
+          <t>닉 브룸필드</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>로건 마샬 그린,타미 브랜차드,에마야치 코리날디,에이든 러브캠프,미쉘 크루지엑,마이크 도일,조디 빌라수소,제이 라슨,마리에 델피노,미힐 하위스만,린지 버지,존 캐럴 린치</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>필 헤이,맷 만프레디</t>
-        </is>
-      </c>
+          <t>휘트니 휴스턴</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>미국 영화,스릴러,심리 스릴러,영화·호러</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>무서운,폭력</t>
-        </is>
-      </c>
+          <t>록 &amp; 팝 콘서트,전기 영화,미국 영화,다큐멘터리</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABVqQdRLsPJjlt2i6T86ORyfYQiBYHsHzqKIVxZcZ9BAf4A0D5ESjAXbMtyNOqK4rfsBR_b5OAv8Oj4jgkBu-SjOk2LqAYjfoIQ.jpg?r=b87</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABdkCjQeuacUQDZpUVxYuCpYxjPzBfZKv19z4l73EDZIJlqkN5G4P39PUVQTpD9aB_D4RIqnI4tizFbxtfb-4orpChV4B4XG_Kg.jpg?r=522</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>오만과 편견 그리고 좀비</t>
+          <t>아메리카 와일드</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>좀비로 들끓는 19세기 영국. 무술의 달인이 된 베넷 자매들이 치맛자락을 걷어붙이고 좀비와의 혈투에 나선다! 《오만과 편견》의 패러디 소설을 영화화한 작품.</t>
+          <t>경외감을 자아내는 자연경관, 길들여지지 않은 야생의 생명력. 태곳적 신비를 간직한 미국의 국립 공원들을 찾아가는 다큐멘터리. 배우 로버트 레드퍼드가 내레이션을 맡았다.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1시간 47분</t>
+          <t>42분</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1348,224 +1284,200 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
+          <t>모든 연령에 해당하는 자가 관람할 수 있는 영화</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABXiSDBVgnoIglc1NyMHcobVwUukOf1FI8snIsCMlnNgsJsxs1hN_bPi5caPLdDTFrBm-4KGwqBOSnKWtP2AvGZOWAWszkpX6qN_QPD0.png?r=c4f</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABXN5x7domTTz5iITuqU7EWM-MyA5iOTqyDQRUD-QASRcof08flo1NTZFRm5EWbM9ZTbUP_yFTSYopfyRvtKXyHxKaPxB-8TwtZBHtGc.png?r=cdc</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>버 스티어스</t>
+          <t>그레그 맥길리브레이</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>릴리 제임스,샘 라일리,잭 휴스턴,벨라 헤스콧,엘리 뱀버,밀리 브래디,수키 워터하우스,더글러스 부스,샐리 필립스,찰스 댄스,레나 헤디,맷 스미스</t>
+          <t>로버트 레드퍼드</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>버 스티어스</t>
+          <t>스티븐 저드슨,티모시 카힐</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>영화·도서 원작,영국 영화,영화·호러,공포 코미디 영화</t>
+          <t>미국 영화,다큐멘터리,과학&amp;자연 다큐멘터리</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>위트,폭력</t>
+          <t>흥미진진</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABe8twpXlVGpaAv6bsdgdpHpIX2jRyXx9NVLYZ64yaqcI4MouDqsMc4hr-87xX8T0w5lTy3JDEOFLFyFtAltRVAPhpP6cD9Rh0g.jpg?r=e55</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABc0T15YACXhe2mtR8hgH-y_M6dtIFChfCsAIPjQZdNT5y4FllzzfXqJEPrE04X13gfC6ydQf84k7uPXVPr4Po9a5kk1mY1KeLA.jpg?r=b09</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>범죄의 재구성</t>
+          <t>과학, 지식 릴레이</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>철옹성 한국은행이 뚫렸다! 모든 시스템을 속이고 거액과 함께 사라진 사기꾼들. 증거와 돈, 모든 것의 행방이 묘연하다. 목표는 하나였지만 서로 달랐던 그들의 속셈. 이제 목숨을 건 추격전이 시작된다. 이 판에선 누구도 믿지 마라.</t>
+          <t>인간은 자신을 둘러싼 거대한 세계를 얼마나 이해하고 있는가. 물리학에서 심리학까지, 다양한 분야의 과학자 9명이 인류의 가장 근원적인 물음을 던진다. 이 세상은 무엇으로 이루어져 있는가, 의식이란 무엇인가, 생명은 어디서 왔는가.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1시간 55분</t>
+          <t>1시간 32분</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>청소년은 관람할 수 없는 영화</t>
+          <t>모든 연령에 해당하는 자가 관람할 수 있는 영화</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABY0GAn4jkueOJuoglRjI_WDYMPg_j7C-32eqiWxVn3pwsuvLYk95gn-hC2eTQSYfrsKsXGh2JGhqV34xh0hthzE7fUmjZUscQsoE0VE.png?r=f6b</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABXLw9Z8q6MkErsg1GePI6tGHVYmCzxSckcqDfrVQssysLFes9j1fX1S0QIiGTsji7vFXdZwIV5JSG26C4MRV5Lc3tpeNgeavtQvNJ2A.png?r=4e0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>최동훈</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>박신양,염정아,백윤식,천호진,이문식,박원상,김상호,김윤석,유선</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>최동훈</t>
-        </is>
-      </c>
+          <t>이안 체니</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>한국 영화,액션 &amp; 어드벤처,액션·코미디,액션 &amp; 어드벤처·범죄</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>색다른 이야기,흥미진진</t>
-        </is>
-      </c>
+          <t>미국 영화,다큐멘터리,과학&amp;자연 다큐멘터리</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABX7N2np9CF3amMAaYtF0HxBw7BnRMyNW0o1sEIC_dFTFHCA_dc5ZBj6Sbg8i-SNG80js6fCEzwL6CBYniYkO3OS4j2zV2scecA.jpg?r=c05</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABfkIbvzCY3i43xTB_26RwzVYmW3iE8VE7vpq1aMEbO3TzhEwhgPIJfMP6O-0cs5Nd20Ek35Dh0iVxHkmlopSL8Vad6cI50b3HQ.jpg?r=276</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>나의 마더</t>
+          <t>하이클레어성의 비밀</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>지구에서 멸종된 인류. 소녀에겐 자신을 키워준 로봇 ‘마더’가 전부였고, 마더 역시 ‘딸’인 소녀가 전부였다. 그들은 안전했다. 낯선 인간 여자가 나타나기 전까진.</t>
+          <t>"다운튼 애비"의 배경으로 알려진 하이클레어성은 실제로 귀족들과 하인들의 집이었으며, 다채로운 역사를 가지고 있다.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1시간 53분</t>
+          <t>54분</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
+          <t>만 12세 이상의 자가 관람할 수 있는 영화</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABTfQhlyV00eQqsjAv_CfcJZKo3oSN_-GMBhfD-NU5Zy7dE1DD3LO-TTQbVssoH_ngKOzKqzK2s01MXoIfZdMLswhXsmXBktUWFzUCT4yKEDTeTyIjjrw_vZlx_o9EwGJnxq_U2Md6qBgXOc5rOhdyM2FKFR4WwzW2TLvpoYArR0.png?r=503</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABel1ifTRo-T-bY2j8kz5ws3mduqTkof9Vx4q8TXYmj09heOHSPgZeh7PAhCTF6Gj235-6i8-HI-bF4V9XwT8OYMQUDAGn2V5F_iTEg8.png?r=ec7</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>그랜트 스푸토레</t>
+          <t>비키 매튜스</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>클라라 루고르,로즈 번,힐러리 스왱크,루크 호커</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>그랜트 스푸토레,마이클 로이드 그린</t>
-        </is>
-      </c>
+          <t>사무엘 웨스트</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>호주 영화,SF &amp; 판타지,사이버펑크,SF·스릴러</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>불길한 영화,서스펜스</t>
-        </is>
-      </c>
+          <t>영국 영화,다큐멘터리,다큐멘터리·사회 &amp; 문화</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABQEWNY9acBuoyBjaG1GlhBfYfjQW8UdITSqUcw2NpPuDS9daVZZDxLaN-8dmUfj0jkuUgkKhQNi4yzt_51Ci4dzwxJ1pRdyRRA.jpg?r=f36</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABbDUaIKzrvjc2nuzqYpUEzNbXPI3TQVBio0vPAu0D-o0TetnATD_qGWxNe69AbC5bbAb6s6s5HZhprIAC913GvloaeedTd-sBw.jpg?r=872</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>침묵</t>
+          <t>바다의 사냥꾼 자고</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>실패를 모르는 남자. 돈이 진심이라 믿는 남자. 그러나 젊은 약혼녀가 주검으로 발견되고 딸이 용의자로 몰리는 순간, 그가 알던 세상은 순식간에 사라졌다. 모든 걸 걸고 딸을 무죄로 만들어라. 그리하지 않으면 모든 걸 잃을 터이니.</t>
+          <t>80대 노인이 산소통도 없이 작살 하나만 들고 바닷속으로 뛰어든다. 심해 사냥이라는 인도네시아 바자우족의 놀라운 전통을 이어가는 노인의 이야기를 담은 다큐멘터리.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2시간 5분</t>
+          <t>48분</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>만 15세 이상의 자가 관람할 수 있는 영화</t>
+          <t>모든 연령에 해당하는 자가 관람할 수 있는 영화</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABYID6lcWbdeElYJwbp4G89h-mYtkhnUmJ_l7zpzr20cVQ2a_nKFuz6LUbuEHExrwlvNdVaL0lla-yddDVaM5hiukuNh_sZAZLmwgIfg.png?r=75c</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/jsgGe9NCko3c-j0wGZ7FSwVlHs0/AAAABQ9LkgZdYxRSylqJhDOt7Bzw61YzJYSVql2Qx6p2QTL8uxmSLaEQJtVqiPJ_d3aXc9P4GYTO4emLtiuwPl554LEJd2pHwcVpZAgpUUs.png?r=150</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>정지우</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>최민식,박신혜,이하늬,이수경,류준열,박해준,조한철</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>제임스 리드,제임스 모건</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>제임스 리드</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>한국 영화,미스터리,드라마 장르 영화,법정 영화·드라마 장르</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>어두운 분위기,서스펜스</t>
-        </is>
-      </c>
+          <t>영국 영화,다큐멘터리,과학&amp;자연 다큐멘터리,다큐멘터리·사회 &amp; 문화</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABe0qw732_0GeHFc1bykVeyFO8tbBasoRzpaqPFYZkMOYt1Zmxguy6CrA0ICxLPevmlcWdkqW09EahAiiGESTHla11MXP1W4uYQ.jpg?r=61e</t>
+          <t>https://occ-0-2794-2219.1.nflxso.net/dnm/api/v6/E8vDc_W8CLv7-yMQu8KMEC7Rrr8/AAAABTgX___awZMswrcy1Zzztvc7KfaSH16wyG-3gVL9VdCW56bA3VHMK1jAIbPKuiP3luTn3SbGAeAkgxG5oyJ2Kd9SDGwLfJJNgg.jpg?r=4ad</t>
         </is>
       </c>
     </row>
